--- a/01_document/フロー図.xlsx
+++ b/01_document/フロー図.xlsx
@@ -261,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -470,11 +470,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -484,27 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,13 +518,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,43 +544,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8318,239 +8303,239 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B3"/>
+      <selection pane="bottomRight" activeCell="A121" sqref="A121:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16" t="s">
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="18"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="11"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="21"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="14"/>
     </row>
     <row r="3" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="15" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="24"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="16"/>
     </row>
     <row r="4" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="19"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="U4" s="4"/>
@@ -8570,8 +8555,8 @@
       <c r="BO4" s="6"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
       <c r="U5" s="2"/>
@@ -8592,8 +8577,8 @@
       <c r="BO5" s="6"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="6"/>
       <c r="U6" s="2"/>
@@ -8614,8 +8599,8 @@
       <c r="BO6" s="6"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="K7" s="2"/>
       <c r="L7" s="6"/>
       <c r="U7" s="2"/>
@@ -8635,8 +8620,8 @@
       <c r="BO7" s="6"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="U8" s="2"/>
@@ -8656,8 +8641,8 @@
       <c r="BO8" s="6"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="K9" s="2"/>
       <c r="L9" s="6"/>
       <c r="U9" s="2"/>
@@ -8677,8 +8662,8 @@
       <c r="BO9" s="6"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="K10" s="2"/>
       <c r="L10" s="6"/>
       <c r="U10" s="2"/>
@@ -8698,8 +8683,8 @@
       <c r="BO10" s="6"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
       <c r="U11" s="2"/>
@@ -8719,8 +8704,8 @@
       <c r="BO11" s="6"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
       <c r="U12" s="2"/>
@@ -8740,8 +8725,8 @@
       <c r="BO12" s="6"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
       <c r="U13" s="2"/>
@@ -8761,8 +8746,8 @@
       <c r="BO13" s="6"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
       <c r="U14" s="2"/>
@@ -8782,8 +8767,8 @@
       <c r="BO14" s="6"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
       <c r="U15" s="2"/>
@@ -8803,8 +8788,8 @@
       <c r="BO15" s="6"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="K16" s="2"/>
       <c r="L16" s="6"/>
       <c r="U16" s="2"/>
@@ -8824,8 +8809,8 @@
       <c r="BO16" s="6"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
       <c r="U17" s="2"/>
@@ -8845,8 +8830,8 @@
       <c r="BO17" s="6"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="K18" s="2"/>
       <c r="L18" s="6"/>
       <c r="U18" s="2"/>
@@ -8866,8 +8851,8 @@
       <c r="BO18" s="6"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="K19" s="2"/>
       <c r="L19" s="6"/>
       <c r="U19" s="2"/>
@@ -8887,8 +8872,8 @@
       <c r="BO19" s="6"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="K20" s="2"/>
       <c r="L20" s="6"/>
       <c r="U20" s="2"/>
@@ -8908,8 +8893,8 @@
       <c r="BO20" s="6"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="6"/>
       <c r="U21" s="2"/>
@@ -8929,8 +8914,8 @@
       <c r="BO21" s="6"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="K22" s="2"/>
       <c r="L22" s="6"/>
       <c r="U22" s="2"/>
@@ -8950,8 +8935,8 @@
       <c r="BO22" s="6"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="K23" s="2"/>
       <c r="L23" s="6"/>
       <c r="U23" s="2"/>
@@ -8971,8 +8956,8 @@
       <c r="BO23" s="6"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="K24" s="2"/>
       <c r="L24" s="6"/>
       <c r="U24" s="2"/>
@@ -8992,8 +8977,8 @@
       <c r="BO24" s="6"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="K25" s="2"/>
       <c r="L25" s="6"/>
       <c r="U25" s="2"/>
@@ -9013,8 +8998,8 @@
       <c r="BO25" s="6"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="K26" s="2"/>
       <c r="L26" s="6"/>
       <c r="U26" s="2"/>
@@ -9034,8 +9019,8 @@
       <c r="BO26" s="6"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="6"/>
       <c r="U27" s="2"/>
@@ -9055,8 +9040,8 @@
       <c r="BO27" s="6"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="K28" s="2"/>
       <c r="L28" s="6"/>
       <c r="U28" s="2"/>
@@ -9076,8 +9061,8 @@
       <c r="BO28" s="6"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="K29" s="2"/>
       <c r="L29" s="6"/>
       <c r="U29" s="2"/>
@@ -9097,8 +9082,8 @@
       <c r="BO29" s="6"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="K30" s="2"/>
       <c r="L30" s="6"/>
       <c r="U30" s="2"/>
@@ -9118,8 +9103,8 @@
       <c r="BO30" s="6"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="K31" s="2"/>
       <c r="L31" s="6"/>
       <c r="U31" s="2"/>
@@ -9139,8 +9124,8 @@
       <c r="BO31" s="6"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="K32" s="2"/>
       <c r="L32" s="6"/>
       <c r="U32" s="2"/>
@@ -9160,8 +9145,8 @@
       <c r="BO32" s="6"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="U33" s="2"/>
@@ -9181,8 +9166,8 @@
       <c r="BO33" s="6"/>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="K34" s="2"/>
       <c r="L34" s="6"/>
       <c r="U34" s="2"/>
@@ -9202,8 +9187,8 @@
       <c r="BO34" s="6"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="K35" s="2"/>
       <c r="L35" s="6"/>
       <c r="U35" s="2"/>
@@ -9223,8 +9208,8 @@
       <c r="BO35" s="6"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="U36" s="2"/>
@@ -9244,8 +9229,8 @@
       <c r="BO36" s="6"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="K37" s="2"/>
       <c r="L37" s="6"/>
       <c r="U37" s="2"/>
@@ -9265,8 +9250,8 @@
       <c r="BO37" s="6"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="K38" s="2"/>
       <c r="L38" s="6"/>
       <c r="U38" s="2"/>
@@ -9286,8 +9271,8 @@
       <c r="BO38" s="6"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="K39" s="2"/>
       <c r="L39" s="6"/>
       <c r="U39" s="2"/>
@@ -9307,8 +9292,8 @@
       <c r="BO39" s="6"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="K40" s="2"/>
       <c r="L40" s="6"/>
       <c r="U40" s="2"/>
@@ -9328,8 +9313,8 @@
       <c r="BO40" s="6"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -9397,7 +9382,7 @@
       <c r="BO41" s="8"/>
     </row>
     <row r="42" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="32"/>
@@ -9468,8 +9453,8 @@
       <c r="BO42" s="5"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -9537,8 +9522,8 @@
       <c r="BO43" s="6"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -9606,8 +9591,8 @@
       <c r="BO44" s="6"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -9675,8 +9660,8 @@
       <c r="BO45" s="6"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -9744,8 +9729,8 @@
       <c r="BO46" s="6"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -9813,8 +9798,8 @@
       <c r="BO47" s="6"/>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -9882,8 +9867,8 @@
       <c r="BO48" s="6"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -9951,8 +9936,8 @@
       <c r="BO49" s="6"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10020,8 +10005,8 @@
       <c r="BO50" s="6"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10089,8 +10074,8 @@
       <c r="BO51" s="6"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10158,8 +10143,8 @@
       <c r="BO52" s="6"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10227,8 +10212,8 @@
       <c r="BO53" s="6"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10296,8 +10281,8 @@
       <c r="BO54" s="6"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10365,8 +10350,8 @@
       <c r="BO55" s="6"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10434,8 +10419,8 @@
       <c r="BO56" s="6"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10503,8 +10488,8 @@
       <c r="BO57" s="6"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10572,8 +10557,8 @@
       <c r="BO58" s="6"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10641,8 +10626,8 @@
       <c r="BO59" s="6"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10710,8 +10695,8 @@
       <c r="BO60" s="6"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10779,8 +10764,8 @@
       <c r="BO61" s="6"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10848,8 +10833,8 @@
       <c r="BO62" s="6"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10917,8 +10902,8 @@
       <c r="BO63" s="6"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10986,8 +10971,8 @@
       <c r="BO64" s="6"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11055,8 +11040,8 @@
       <c r="BO65" s="6"/>
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11124,8 +11109,8 @@
       <c r="BO66" s="6"/>
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -11193,8 +11178,8 @@
       <c r="BO67" s="6"/>
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="34"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11262,8 +11247,8 @@
       <c r="BO68" s="6"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11331,8 +11316,8 @@
       <c r="BO69" s="6"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11400,8 +11385,8 @@
       <c r="BO70" s="6"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11469,8 +11454,8 @@
       <c r="BO71" s="6"/>
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11538,8 +11523,8 @@
       <c r="BO72" s="6"/>
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11607,8 +11592,8 @@
       <c r="BO73" s="6"/>
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11676,8 +11661,8 @@
       <c r="BO74" s="6"/>
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11745,8 +11730,8 @@
       <c r="BO75" s="6"/>
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11814,8 +11799,8 @@
       <c r="BO76" s="6"/>
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11883,8 +11868,8 @@
       <c r="BO77" s="6"/>
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11952,8 +11937,8 @@
       <c r="BO78" s="6"/>
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -12021,8 +12006,8 @@
       <c r="BO79" s="6"/>
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -12090,8 +12075,8 @@
       <c r="BO80" s="6"/>
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -12159,8 +12144,8 @@
       <c r="BO81" s="6"/>
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -12228,8 +12213,8 @@
       <c r="BO82" s="6"/>
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -12297,8 +12282,8 @@
       <c r="BO83" s="6"/>
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -12366,8 +12351,8 @@
       <c r="BO84" s="6"/>
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -12435,8 +12420,8 @@
       <c r="BO85" s="6"/>
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -12504,8 +12489,8 @@
       <c r="BO86" s="6"/>
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -12573,8 +12558,8 @@
       <c r="BO87" s="6"/>
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -12642,8 +12627,8 @@
       <c r="BO88" s="6"/>
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -12711,8 +12696,8 @@
       <c r="BO89" s="6"/>
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -12780,8 +12765,8 @@
       <c r="BO90" s="6"/>
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -12849,8 +12834,8 @@
       <c r="BO91" s="6"/>
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -12918,8 +12903,8 @@
       <c r="BO92" s="6"/>
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12987,8 +12972,8 @@
       <c r="BO93" s="6"/>
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -13056,8 +13041,8 @@
       <c r="BO94" s="6"/>
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -13125,8 +13110,8 @@
       <c r="BO95" s="6"/>
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
-      <c r="B96" s="34"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -13194,8 +13179,8 @@
       <c r="BO96" s="6"/>
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
-      <c r="B97" s="34"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -13263,8 +13248,8 @@
       <c r="BO97" s="6"/>
     </row>
     <row r="98" spans="1:67" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
-      <c r="B98" s="34"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -13332,8 +13317,8 @@
       <c r="BO98" s="6"/>
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
-      <c r="B99" s="34"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -13401,8 +13386,8 @@
       <c r="BO99" s="6"/>
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
-      <c r="B100" s="34"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -13470,8 +13455,8 @@
       <c r="BO100" s="6"/>
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
-      <c r="B101" s="34"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -13539,8 +13524,8 @@
       <c r="BO101" s="6"/>
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
-      <c r="B102" s="34"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -13608,8 +13593,8 @@
       <c r="BO102" s="6"/>
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A103" s="33"/>
-      <c r="B103" s="34"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -13677,8 +13662,8 @@
       <c r="BO103" s="6"/>
     </row>
     <row r="104" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A104" s="33"/>
-      <c r="B104" s="34"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -13746,8 +13731,8 @@
       <c r="BO104" s="6"/>
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
-      <c r="B105" s="34"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -13815,8 +13800,8 @@
       <c r="BO105" s="6"/>
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
-      <c r="B106" s="34"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -13884,8 +13869,8 @@
       <c r="BO106" s="6"/>
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
-      <c r="B107" s="34"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -13953,8 +13938,8 @@
       <c r="BO107" s="6"/>
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
-      <c r="B108" s="34"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -14022,8 +14007,8 @@
       <c r="BO108" s="6"/>
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
-      <c r="B109" s="34"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -14091,8 +14076,8 @@
       <c r="BO109" s="6"/>
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
-      <c r="B110" s="34"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -14160,8 +14145,8 @@
       <c r="BO110" s="6"/>
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
-      <c r="B111" s="34"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -14229,8 +14214,8 @@
       <c r="BO111" s="6"/>
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A112" s="33"/>
-      <c r="B112" s="34"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -14298,8 +14283,8 @@
       <c r="BO112" s="6"/>
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A113" s="33"/>
-      <c r="B113" s="34"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -14367,8 +14352,8 @@
       <c r="BO113" s="6"/>
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A114" s="33"/>
-      <c r="B114" s="34"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -14436,8 +14421,8 @@
       <c r="BO114" s="6"/>
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A115" s="33"/>
-      <c r="B115" s="34"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -14505,8 +14490,8 @@
       <c r="BO115" s="6"/>
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A116" s="33"/>
-      <c r="B116" s="34"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -14574,8 +14559,8 @@
       <c r="BO116" s="6"/>
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A117" s="33"/>
-      <c r="B117" s="34"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -14643,8 +14628,8 @@
       <c r="BO117" s="6"/>
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
-      <c r="B118" s="34"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14712,8 +14697,8 @@
       <c r="BO118" s="6"/>
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="34"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14781,8 +14766,8 @@
       <c r="BO119" s="6"/>
     </row>
     <row r="120" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="35"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -14850,10 +14835,10 @@
       <c r="BO120" s="8"/>
     </row>
     <row r="121" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="38"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -14921,8 +14906,8 @@
       <c r="BO121" s="5"/>
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A122" s="39"/>
-      <c r="B122" s="40"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -14990,8 +14975,8 @@
       <c r="BO122" s="6"/>
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A123" s="39"/>
-      <c r="B123" s="40"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15059,8 +15044,8 @@
       <c r="BO123" s="6"/>
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A124" s="39"/>
-      <c r="B124" s="40"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15128,8 +15113,8 @@
       <c r="BO124" s="6"/>
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A125" s="39"/>
-      <c r="B125" s="40"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15197,8 +15182,8 @@
       <c r="BO125" s="6"/>
     </row>
     <row r="126" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A126" s="39"/>
-      <c r="B126" s="40"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15266,8 +15251,8 @@
       <c r="BO126" s="6"/>
     </row>
     <row r="127" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A127" s="39"/>
-      <c r="B127" s="40"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15335,8 +15320,8 @@
       <c r="BO127" s="6"/>
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A128" s="39"/>
-      <c r="B128" s="40"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15404,8 +15389,8 @@
       <c r="BO128" s="6"/>
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A129" s="39"/>
-      <c r="B129" s="40"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15473,8 +15458,8 @@
       <c r="BO129" s="6"/>
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A130" s="39"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15542,8 +15527,8 @@
       <c r="BO130" s="6"/>
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A131" s="39"/>
-      <c r="B131" s="40"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15611,8 +15596,8 @@
       <c r="BO131" s="6"/>
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A132" s="39"/>
-      <c r="B132" s="40"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -15680,8 +15665,8 @@
       <c r="BO132" s="6"/>
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A133" s="39"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -15749,8 +15734,8 @@
       <c r="BO133" s="6"/>
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A134" s="39"/>
-      <c r="B134" s="40"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -15818,8 +15803,8 @@
       <c r="BO134" s="6"/>
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A135" s="39"/>
-      <c r="B135" s="40"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -15887,8 +15872,8 @@
       <c r="BO135" s="6"/>
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A136" s="39"/>
-      <c r="B136" s="40"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -15956,8 +15941,8 @@
       <c r="BO136" s="6"/>
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16025,8 +16010,8 @@
       <c r="BO137" s="6"/>
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A138" s="39"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16094,8 +16079,8 @@
       <c r="BO138" s="6"/>
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A139" s="39"/>
-      <c r="B139" s="40"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16163,8 +16148,8 @@
       <c r="BO139" s="6"/>
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A140" s="39"/>
-      <c r="B140" s="40"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16232,8 +16217,8 @@
       <c r="BO140" s="6"/>
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A141" s="39"/>
-      <c r="B141" s="40"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16301,8 +16286,8 @@
       <c r="BO141" s="6"/>
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A142" s="39"/>
-      <c r="B142" s="40"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16370,8 +16355,8 @@
       <c r="BO142" s="6"/>
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A143" s="39"/>
-      <c r="B143" s="40"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -16439,8 +16424,8 @@
       <c r="BO143" s="6"/>
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A144" s="39"/>
-      <c r="B144" s="40"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -16508,8 +16493,8 @@
       <c r="BO144" s="6"/>
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A145" s="39"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -16577,8 +16562,8 @@
       <c r="BO145" s="6"/>
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A146" s="39"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -16646,8 +16631,8 @@
       <c r="BO146" s="6"/>
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A147" s="39"/>
-      <c r="B147" s="40"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -16715,8 +16700,8 @@
       <c r="BO147" s="6"/>
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A148" s="39"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -16784,8 +16769,8 @@
       <c r="BO148" s="6"/>
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A149" s="39"/>
-      <c r="B149" s="40"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -16853,8 +16838,8 @@
       <c r="BO149" s="6"/>
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A150" s="39"/>
-      <c r="B150" s="40"/>
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -16922,8 +16907,8 @@
       <c r="BO150" s="6"/>
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A151" s="39"/>
-      <c r="B151" s="40"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="33"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -16991,8 +16976,8 @@
       <c r="BO151" s="6"/>
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A152" s="39"/>
-      <c r="B152" s="40"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17060,8 +17045,8 @@
       <c r="BO152" s="6"/>
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A153" s="39"/>
-      <c r="B153" s="40"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17129,8 +17114,8 @@
       <c r="BO153" s="6"/>
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A154" s="39"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -17198,8 +17183,8 @@
       <c r="BO154" s="6"/>
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A155" s="39"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -17267,8 +17252,8 @@
       <c r="BO155" s="6"/>
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A156" s="39"/>
-      <c r="B156" s="40"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -17336,8 +17321,8 @@
       <c r="BO156" s="6"/>
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A157" s="39"/>
-      <c r="B157" s="40"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -17405,8 +17390,8 @@
       <c r="BO157" s="6"/>
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A158" s="39"/>
-      <c r="B158" s="40"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -17474,8 +17459,8 @@
       <c r="BO158" s="6"/>
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A159" s="39"/>
-      <c r="B159" s="40"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17543,8 +17528,8 @@
       <c r="BO159" s="6"/>
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A160" s="39"/>
-      <c r="B160" s="40"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -17612,8 +17597,8 @@
       <c r="BO160" s="6"/>
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A161" s="39"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -17681,8 +17666,8 @@
       <c r="BO161" s="6"/>
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A162" s="39"/>
-      <c r="B162" s="40"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -17750,8 +17735,8 @@
       <c r="BO162" s="6"/>
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A163" s="39"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -17819,8 +17804,8 @@
       <c r="BO163" s="6"/>
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A164" s="39"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="33"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -17888,8 +17873,8 @@
       <c r="BO164" s="6"/>
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A165" s="41"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -17958,11 +17943,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BI1:BO3"/>
-    <mergeCell ref="AQ1:BH3"/>
-    <mergeCell ref="AG1:AP3"/>
-    <mergeCell ref="W2:AF3"/>
-    <mergeCell ref="A42:B120"/>
     <mergeCell ref="A121:B165"/>
     <mergeCell ref="A4:B41"/>
     <mergeCell ref="A1:B3"/>
@@ -17970,6 +17950,11 @@
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C2:V2"/>
     <mergeCell ref="C1:AF1"/>
+    <mergeCell ref="BI1:BO3"/>
+    <mergeCell ref="AQ1:BH3"/>
+    <mergeCell ref="AG1:AP3"/>
+    <mergeCell ref="W2:AF3"/>
+    <mergeCell ref="A42:B120"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_document/フロー図.xlsx
+++ b/01_document/フロー図.xlsx
@@ -526,6 +526,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,12 +572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4771,7 +4771,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>社員一覧</a:t>
+            <a:t>評価結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5423,6 +5431,21 @@
             <a:t>社員一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未評価者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8303,14 +8326,14 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A121:B165"/>
+      <selection pane="bottomRight" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
@@ -8386,8 +8409,8 @@
       <c r="BO1" s="11"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
@@ -8459,32 +8482,32 @@
       <c r="BO2" s="14"/>
     </row>
     <row r="3" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
@@ -8532,10 +8555,10 @@
       <c r="BO3" s="16"/>
     </row>
     <row r="4" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="U4" s="4"/>
@@ -8555,8 +8578,8 @@
       <c r="BO4" s="6"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
       <c r="U5" s="2"/>
@@ -8577,8 +8600,8 @@
       <c r="BO5" s="6"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="K6" s="2"/>
       <c r="L6" s="6"/>
       <c r="U6" s="2"/>
@@ -8599,8 +8622,8 @@
       <c r="BO6" s="6"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="K7" s="2"/>
       <c r="L7" s="6"/>
       <c r="U7" s="2"/>
@@ -8620,8 +8643,8 @@
       <c r="BO7" s="6"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="U8" s="2"/>
@@ -8641,8 +8664,8 @@
       <c r="BO8" s="6"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="K9" s="2"/>
       <c r="L9" s="6"/>
       <c r="U9" s="2"/>
@@ -8662,8 +8685,8 @@
       <c r="BO9" s="6"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="K10" s="2"/>
       <c r="L10" s="6"/>
       <c r="U10" s="2"/>
@@ -8683,8 +8706,8 @@
       <c r="BO10" s="6"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
       <c r="U11" s="2"/>
@@ -8704,8 +8727,8 @@
       <c r="BO11" s="6"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
       <c r="U12" s="2"/>
@@ -8725,8 +8748,8 @@
       <c r="BO12" s="6"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
       <c r="U13" s="2"/>
@@ -8746,8 +8769,8 @@
       <c r="BO13" s="6"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
       <c r="U14" s="2"/>
@@ -8767,8 +8790,8 @@
       <c r="BO14" s="6"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
       <c r="U15" s="2"/>
@@ -8788,8 +8811,8 @@
       <c r="BO15" s="6"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="K16" s="2"/>
       <c r="L16" s="6"/>
       <c r="U16" s="2"/>
@@ -8809,8 +8832,8 @@
       <c r="BO16" s="6"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
       <c r="U17" s="2"/>
@@ -8830,8 +8853,8 @@
       <c r="BO17" s="6"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="K18" s="2"/>
       <c r="L18" s="6"/>
       <c r="U18" s="2"/>
@@ -8851,8 +8874,8 @@
       <c r="BO18" s="6"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="K19" s="2"/>
       <c r="L19" s="6"/>
       <c r="U19" s="2"/>
@@ -8872,8 +8895,8 @@
       <c r="BO19" s="6"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="K20" s="2"/>
       <c r="L20" s="6"/>
       <c r="U20" s="2"/>
@@ -8893,8 +8916,8 @@
       <c r="BO20" s="6"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="K21" s="2"/>
       <c r="L21" s="6"/>
       <c r="U21" s="2"/>
@@ -8914,8 +8937,8 @@
       <c r="BO21" s="6"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="K22" s="2"/>
       <c r="L22" s="6"/>
       <c r="U22" s="2"/>
@@ -8935,8 +8958,8 @@
       <c r="BO22" s="6"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="K23" s="2"/>
       <c r="L23" s="6"/>
       <c r="U23" s="2"/>
@@ -8956,8 +8979,8 @@
       <c r="BO23" s="6"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="K24" s="2"/>
       <c r="L24" s="6"/>
       <c r="U24" s="2"/>
@@ -8977,8 +9000,8 @@
       <c r="BO24" s="6"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="K25" s="2"/>
       <c r="L25" s="6"/>
       <c r="U25" s="2"/>
@@ -8998,8 +9021,8 @@
       <c r="BO25" s="6"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="K26" s="2"/>
       <c r="L26" s="6"/>
       <c r="U26" s="2"/>
@@ -9019,8 +9042,8 @@
       <c r="BO26" s="6"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="K27" s="2"/>
       <c r="L27" s="6"/>
       <c r="U27" s="2"/>
@@ -9040,8 +9063,8 @@
       <c r="BO27" s="6"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="K28" s="2"/>
       <c r="L28" s="6"/>
       <c r="U28" s="2"/>
@@ -9061,8 +9084,8 @@
       <c r="BO28" s="6"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
       <c r="K29" s="2"/>
       <c r="L29" s="6"/>
       <c r="U29" s="2"/>
@@ -9082,8 +9105,8 @@
       <c r="BO29" s="6"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="K30" s="2"/>
       <c r="L30" s="6"/>
       <c r="U30" s="2"/>
@@ -9103,8 +9126,8 @@
       <c r="BO30" s="6"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="K31" s="2"/>
       <c r="L31" s="6"/>
       <c r="U31" s="2"/>
@@ -9124,8 +9147,8 @@
       <c r="BO31" s="6"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="K32" s="2"/>
       <c r="L32" s="6"/>
       <c r="U32" s="2"/>
@@ -9145,8 +9168,8 @@
       <c r="BO32" s="6"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="U33" s="2"/>
@@ -9166,8 +9189,8 @@
       <c r="BO33" s="6"/>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="K34" s="2"/>
       <c r="L34" s="6"/>
       <c r="U34" s="2"/>
@@ -9187,8 +9210,8 @@
       <c r="BO34" s="6"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
       <c r="K35" s="2"/>
       <c r="L35" s="6"/>
       <c r="U35" s="2"/>
@@ -9208,8 +9231,8 @@
       <c r="BO35" s="6"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="U36" s="2"/>
@@ -9229,8 +9252,8 @@
       <c r="BO36" s="6"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="K37" s="2"/>
       <c r="L37" s="6"/>
       <c r="U37" s="2"/>
@@ -9250,8 +9273,8 @@
       <c r="BO37" s="6"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="K38" s="2"/>
       <c r="L38" s="6"/>
       <c r="U38" s="2"/>
@@ -9271,8 +9294,8 @@
       <c r="BO38" s="6"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="K39" s="2"/>
       <c r="L39" s="6"/>
       <c r="U39" s="2"/>
@@ -9292,8 +9315,8 @@
       <c r="BO39" s="6"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="K40" s="2"/>
       <c r="L40" s="6"/>
       <c r="U40" s="2"/>
@@ -9313,8 +9336,8 @@
       <c r="BO40" s="6"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -9382,10 +9405,10 @@
       <c r="BO41" s="8"/>
     </row>
     <row r="42" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -9453,8 +9476,8 @@
       <c r="BO42" s="5"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -9522,8 +9545,8 @@
       <c r="BO43" s="6"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -9591,8 +9614,8 @@
       <c r="BO44" s="6"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -9660,8 +9683,8 @@
       <c r="BO45" s="6"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -9729,8 +9752,8 @@
       <c r="BO46" s="6"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -9798,8 +9821,8 @@
       <c r="BO47" s="6"/>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -9867,8 +9890,8 @@
       <c r="BO48" s="6"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -9936,8 +9959,8 @@
       <c r="BO49" s="6"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10005,8 +10028,8 @@
       <c r="BO50" s="6"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10074,8 +10097,8 @@
       <c r="BO51" s="6"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10143,8 +10166,8 @@
       <c r="BO52" s="6"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10212,8 +10235,8 @@
       <c r="BO53" s="6"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10281,8 +10304,8 @@
       <c r="BO54" s="6"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10350,8 +10373,8 @@
       <c r="BO55" s="6"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10419,8 +10442,8 @@
       <c r="BO56" s="6"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10488,8 +10511,8 @@
       <c r="BO57" s="6"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10557,8 +10580,8 @@
       <c r="BO58" s="6"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10626,8 +10649,8 @@
       <c r="BO59" s="6"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10695,8 +10718,8 @@
       <c r="BO60" s="6"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10764,8 +10787,8 @@
       <c r="BO61" s="6"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10833,8 +10856,8 @@
       <c r="BO62" s="6"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10902,8 +10925,8 @@
       <c r="BO63" s="6"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10971,8 +10994,8 @@
       <c r="BO64" s="6"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11040,8 +11063,8 @@
       <c r="BO65" s="6"/>
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11109,8 +11132,8 @@
       <c r="BO66" s="6"/>
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -11178,8 +11201,8 @@
       <c r="BO67" s="6"/>
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11247,8 +11270,8 @@
       <c r="BO68" s="6"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11316,8 +11339,8 @@
       <c r="BO69" s="6"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11385,8 +11408,8 @@
       <c r="BO70" s="6"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11454,8 +11477,8 @@
       <c r="BO71" s="6"/>
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11523,8 +11546,8 @@
       <c r="BO72" s="6"/>
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11592,8 +11615,8 @@
       <c r="BO73" s="6"/>
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11661,8 +11684,8 @@
       <c r="BO74" s="6"/>
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11730,8 +11753,8 @@
       <c r="BO75" s="6"/>
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11799,8 +11822,8 @@
       <c r="BO76" s="6"/>
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11868,8 +11891,8 @@
       <c r="BO77" s="6"/>
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11937,8 +11960,8 @@
       <c r="BO78" s="6"/>
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -12006,8 +12029,8 @@
       <c r="BO79" s="6"/>
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -12075,8 +12098,8 @@
       <c r="BO80" s="6"/>
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -12144,8 +12167,8 @@
       <c r="BO81" s="6"/>
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -12213,8 +12236,8 @@
       <c r="BO82" s="6"/>
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -12282,8 +12305,8 @@
       <c r="BO83" s="6"/>
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -12351,8 +12374,8 @@
       <c r="BO84" s="6"/>
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -12420,8 +12443,8 @@
       <c r="BO85" s="6"/>
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -12489,8 +12512,8 @@
       <c r="BO86" s="6"/>
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -12558,8 +12581,8 @@
       <c r="BO87" s="6"/>
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -12627,8 +12650,8 @@
       <c r="BO88" s="6"/>
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -12696,8 +12719,8 @@
       <c r="BO89" s="6"/>
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -12765,8 +12788,8 @@
       <c r="BO90" s="6"/>
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -12834,8 +12857,8 @@
       <c r="BO91" s="6"/>
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -12903,8 +12926,8 @@
       <c r="BO92" s="6"/>
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12972,8 +12995,8 @@
       <c r="BO93" s="6"/>
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -13041,8 +13064,8 @@
       <c r="BO94" s="6"/>
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -13110,8 +13133,8 @@
       <c r="BO95" s="6"/>
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -13179,8 +13202,8 @@
       <c r="BO96" s="6"/>
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -13248,8 +13271,8 @@
       <c r="BO97" s="6"/>
     </row>
     <row r="98" spans="1:67" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -13317,8 +13340,8 @@
       <c r="BO98" s="6"/>
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -13386,8 +13409,8 @@
       <c r="BO99" s="6"/>
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -13455,8 +13478,8 @@
       <c r="BO100" s="6"/>
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -13524,8 +13547,8 @@
       <c r="BO101" s="6"/>
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -13593,8 +13616,8 @@
       <c r="BO102" s="6"/>
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -13662,8 +13685,8 @@
       <c r="BO103" s="6"/>
     </row>
     <row r="104" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -13731,8 +13754,8 @@
       <c r="BO104" s="6"/>
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -13800,8 +13823,8 @@
       <c r="BO105" s="6"/>
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -13869,8 +13892,8 @@
       <c r="BO106" s="6"/>
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -13938,8 +13961,8 @@
       <c r="BO107" s="6"/>
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -14007,8 +14030,8 @@
       <c r="BO108" s="6"/>
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -14076,8 +14099,8 @@
       <c r="BO109" s="6"/>
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -14145,8 +14168,8 @@
       <c r="BO110" s="6"/>
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -14214,8 +14237,8 @@
       <c r="BO111" s="6"/>
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -14283,8 +14306,8 @@
       <c r="BO112" s="6"/>
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -14352,8 +14375,8 @@
       <c r="BO113" s="6"/>
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -14421,8 +14444,8 @@
       <c r="BO114" s="6"/>
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A115" s="32"/>
-      <c r="B115" s="32"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -14490,8 +14513,8 @@
       <c r="BO115" s="6"/>
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -14559,8 +14582,8 @@
       <c r="BO116" s="6"/>
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -14628,8 +14651,8 @@
       <c r="BO117" s="6"/>
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14697,8 +14720,8 @@
       <c r="BO118" s="6"/>
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14766,8 +14789,8 @@
       <c r="BO119" s="6"/>
     </row>
     <row r="120" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -14835,10 +14858,10 @@
       <c r="BO120" s="8"/>
     </row>
     <row r="121" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="33"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -14906,8 +14929,8 @@
       <c r="BO121" s="5"/>
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -14975,8 +14998,8 @@
       <c r="BO122" s="6"/>
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15044,8 +15067,8 @@
       <c r="BO123" s="6"/>
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15113,8 +15136,8 @@
       <c r="BO124" s="6"/>
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15182,8 +15205,8 @@
       <c r="BO125" s="6"/>
     </row>
     <row r="126" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15251,8 +15274,8 @@
       <c r="BO126" s="6"/>
     </row>
     <row r="127" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15320,8 +15343,8 @@
       <c r="BO127" s="6"/>
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15389,8 +15412,8 @@
       <c r="BO128" s="6"/>
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15458,8 +15481,8 @@
       <c r="BO129" s="6"/>
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15527,8 +15550,8 @@
       <c r="BO130" s="6"/>
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15596,8 +15619,8 @@
       <c r="BO131" s="6"/>
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -15665,8 +15688,8 @@
       <c r="BO132" s="6"/>
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -15734,8 +15757,8 @@
       <c r="BO133" s="6"/>
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -15803,8 +15826,8 @@
       <c r="BO134" s="6"/>
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -15872,8 +15895,8 @@
       <c r="BO135" s="6"/>
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -15941,8 +15964,8 @@
       <c r="BO136" s="6"/>
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16010,8 +16033,8 @@
       <c r="BO137" s="6"/>
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16079,8 +16102,8 @@
       <c r="BO138" s="6"/>
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16148,8 +16171,8 @@
       <c r="BO139" s="6"/>
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16217,8 +16240,8 @@
       <c r="BO140" s="6"/>
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16286,8 +16309,8 @@
       <c r="BO141" s="6"/>
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16355,8 +16378,8 @@
       <c r="BO142" s="6"/>
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -16424,8 +16447,8 @@
       <c r="BO143" s="6"/>
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -16493,8 +16516,8 @@
       <c r="BO144" s="6"/>
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -16562,8 +16585,8 @@
       <c r="BO145" s="6"/>
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -16631,8 +16654,8 @@
       <c r="BO146" s="6"/>
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -16700,8 +16723,8 @@
       <c r="BO147" s="6"/>
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -16769,8 +16792,8 @@
       <c r="BO148" s="6"/>
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -16838,8 +16861,8 @@
       <c r="BO149" s="6"/>
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -16907,8 +16930,8 @@
       <c r="BO150" s="6"/>
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -16976,8 +16999,8 @@
       <c r="BO151" s="6"/>
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17045,8 +17068,8 @@
       <c r="BO152" s="6"/>
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17114,8 +17137,8 @@
       <c r="BO153" s="6"/>
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -17183,8 +17206,8 @@
       <c r="BO154" s="6"/>
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -17252,8 +17275,8 @@
       <c r="BO155" s="6"/>
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -17321,8 +17344,8 @@
       <c r="BO156" s="6"/>
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -17390,8 +17413,8 @@
       <c r="BO157" s="6"/>
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -17459,8 +17482,8 @@
       <c r="BO158" s="6"/>
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17528,8 +17551,8 @@
       <c r="BO159" s="6"/>
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -17597,8 +17620,8 @@
       <c r="BO160" s="6"/>
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -17666,8 +17689,8 @@
       <c r="BO161" s="6"/>
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -17735,8 +17758,8 @@
       <c r="BO162" s="6"/>
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A163" s="33"/>
-      <c r="B163" s="33"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -17804,8 +17827,8 @@
       <c r="BO163" s="6"/>
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A164" s="33"/>
-      <c r="B164" s="33"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -17873,8 +17896,8 @@
       <c r="BO164" s="6"/>
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A165" s="33"/>
-      <c r="B165" s="33"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>

--- a/01_document/フロー図.xlsx
+++ b/01_document/フロー図.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="評価準備から評価結果確認まで" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -499,36 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,6 +542,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5428,24 +5428,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>社員一覧</a:t>
+            <a:t>評価結果一覧</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未評価者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8323,242 +8308,242 @@
   <dimension ref="A1:BO165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B3"/>
+      <selection pane="bottomRight" activeCell="V131" sqref="V131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="9" t="s">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="11"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="27"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="14"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="29"/>
     </row>
     <row r="3" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="32" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="16"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="31"/>
     </row>
     <row r="4" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="11"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="U4" s="4"/>
@@ -8578,8 +8563,8 @@
       <c r="BO4" s="6"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
       <c r="U5" s="2"/>
@@ -8600,8 +8585,8 @@
       <c r="BO5" s="6"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="K6" s="2"/>
       <c r="L6" s="6"/>
       <c r="U6" s="2"/>
@@ -8622,8 +8607,8 @@
       <c r="BO6" s="6"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="K7" s="2"/>
       <c r="L7" s="6"/>
       <c r="U7" s="2"/>
@@ -8643,8 +8628,8 @@
       <c r="BO7" s="6"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="U8" s="2"/>
@@ -8664,8 +8649,8 @@
       <c r="BO8" s="6"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="K9" s="2"/>
       <c r="L9" s="6"/>
       <c r="U9" s="2"/>
@@ -8685,8 +8670,8 @@
       <c r="BO9" s="6"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="K10" s="2"/>
       <c r="L10" s="6"/>
       <c r="U10" s="2"/>
@@ -8706,8 +8691,8 @@
       <c r="BO10" s="6"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
       <c r="U11" s="2"/>
@@ -8727,8 +8712,8 @@
       <c r="BO11" s="6"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
       <c r="U12" s="2"/>
@@ -8748,8 +8733,8 @@
       <c r="BO12" s="6"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
       <c r="U13" s="2"/>
@@ -8769,8 +8754,8 @@
       <c r="BO13" s="6"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
       <c r="U14" s="2"/>
@@ -8790,8 +8775,8 @@
       <c r="BO14" s="6"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
       <c r="U15" s="2"/>
@@ -8811,8 +8796,8 @@
       <c r="BO15" s="6"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="K16" s="2"/>
       <c r="L16" s="6"/>
       <c r="U16" s="2"/>
@@ -8832,8 +8817,8 @@
       <c r="BO16" s="6"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
       <c r="U17" s="2"/>
@@ -8853,8 +8838,8 @@
       <c r="BO17" s="6"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="K18" s="2"/>
       <c r="L18" s="6"/>
       <c r="U18" s="2"/>
@@ -8874,8 +8859,8 @@
       <c r="BO18" s="6"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="K19" s="2"/>
       <c r="L19" s="6"/>
       <c r="U19" s="2"/>
@@ -8895,8 +8880,8 @@
       <c r="BO19" s="6"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="K20" s="2"/>
       <c r="L20" s="6"/>
       <c r="U20" s="2"/>
@@ -8916,8 +8901,8 @@
       <c r="BO20" s="6"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="K21" s="2"/>
       <c r="L21" s="6"/>
       <c r="U21" s="2"/>
@@ -8937,8 +8922,8 @@
       <c r="BO21" s="6"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="K22" s="2"/>
       <c r="L22" s="6"/>
       <c r="U22" s="2"/>
@@ -8958,8 +8943,8 @@
       <c r="BO22" s="6"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="K23" s="2"/>
       <c r="L23" s="6"/>
       <c r="U23" s="2"/>
@@ -8979,8 +8964,8 @@
       <c r="BO23" s="6"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="K24" s="2"/>
       <c r="L24" s="6"/>
       <c r="U24" s="2"/>
@@ -9000,8 +8985,8 @@
       <c r="BO24" s="6"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="K25" s="2"/>
       <c r="L25" s="6"/>
       <c r="U25" s="2"/>
@@ -9021,8 +9006,8 @@
       <c r="BO25" s="6"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="K26" s="2"/>
       <c r="L26" s="6"/>
       <c r="U26" s="2"/>
@@ -9042,8 +9027,8 @@
       <c r="BO26" s="6"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="K27" s="2"/>
       <c r="L27" s="6"/>
       <c r="U27" s="2"/>
@@ -9063,8 +9048,8 @@
       <c r="BO27" s="6"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="K28" s="2"/>
       <c r="L28" s="6"/>
       <c r="U28" s="2"/>
@@ -9084,8 +9069,8 @@
       <c r="BO28" s="6"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="K29" s="2"/>
       <c r="L29" s="6"/>
       <c r="U29" s="2"/>
@@ -9105,8 +9090,8 @@
       <c r="BO29" s="6"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="K30" s="2"/>
       <c r="L30" s="6"/>
       <c r="U30" s="2"/>
@@ -9126,8 +9111,8 @@
       <c r="BO30" s="6"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="K31" s="2"/>
       <c r="L31" s="6"/>
       <c r="U31" s="2"/>
@@ -9147,8 +9132,8 @@
       <c r="BO31" s="6"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="K32" s="2"/>
       <c r="L32" s="6"/>
       <c r="U32" s="2"/>
@@ -9168,8 +9153,8 @@
       <c r="BO32" s="6"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="U33" s="2"/>
@@ -9189,8 +9174,8 @@
       <c r="BO33" s="6"/>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="K34" s="2"/>
       <c r="L34" s="6"/>
       <c r="U34" s="2"/>
@@ -9210,8 +9195,8 @@
       <c r="BO34" s="6"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="K35" s="2"/>
       <c r="L35" s="6"/>
       <c r="U35" s="2"/>
@@ -9231,8 +9216,8 @@
       <c r="BO35" s="6"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="U36" s="2"/>
@@ -9252,8 +9237,8 @@
       <c r="BO36" s="6"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="K37" s="2"/>
       <c r="L37" s="6"/>
       <c r="U37" s="2"/>
@@ -9273,8 +9258,8 @@
       <c r="BO37" s="6"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="K38" s="2"/>
       <c r="L38" s="6"/>
       <c r="U38" s="2"/>
@@ -9294,8 +9279,8 @@
       <c r="BO38" s="6"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="K39" s="2"/>
       <c r="L39" s="6"/>
       <c r="U39" s="2"/>
@@ -9315,8 +9300,8 @@
       <c r="BO39" s="6"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="K40" s="2"/>
       <c r="L40" s="6"/>
       <c r="U40" s="2"/>
@@ -9336,8 +9321,8 @@
       <c r="BO40" s="6"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -9405,10 +9390,10 @@
       <c r="BO41" s="8"/>
     </row>
     <row r="42" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -9476,8 +9461,8 @@
       <c r="BO42" s="5"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -9545,8 +9530,8 @@
       <c r="BO43" s="6"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -9614,8 +9599,8 @@
       <c r="BO44" s="6"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -9683,8 +9668,8 @@
       <c r="BO45" s="6"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -9752,8 +9737,8 @@
       <c r="BO46" s="6"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -9821,8 +9806,8 @@
       <c r="BO47" s="6"/>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -9890,8 +9875,8 @@
       <c r="BO48" s="6"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -9959,8 +9944,8 @@
       <c r="BO49" s="6"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10028,8 +10013,8 @@
       <c r="BO50" s="6"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10097,8 +10082,8 @@
       <c r="BO51" s="6"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10166,8 +10151,8 @@
       <c r="BO52" s="6"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10235,8 +10220,8 @@
       <c r="BO53" s="6"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10304,8 +10289,8 @@
       <c r="BO54" s="6"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10373,8 +10358,8 @@
       <c r="BO55" s="6"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10442,8 +10427,8 @@
       <c r="BO56" s="6"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10511,8 +10496,8 @@
       <c r="BO57" s="6"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10580,8 +10565,8 @@
       <c r="BO58" s="6"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10649,8 +10634,8 @@
       <c r="BO59" s="6"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10718,8 +10703,8 @@
       <c r="BO60" s="6"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10787,8 +10772,8 @@
       <c r="BO61" s="6"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10856,8 +10841,8 @@
       <c r="BO62" s="6"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10925,8 +10910,8 @@
       <c r="BO63" s="6"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10994,8 +10979,8 @@
       <c r="BO64" s="6"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11063,8 +11048,8 @@
       <c r="BO65" s="6"/>
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11132,8 +11117,8 @@
       <c r="BO66" s="6"/>
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -11201,8 +11186,8 @@
       <c r="BO67" s="6"/>
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11270,8 +11255,8 @@
       <c r="BO68" s="6"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11339,8 +11324,8 @@
       <c r="BO69" s="6"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11408,8 +11393,8 @@
       <c r="BO70" s="6"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11477,8 +11462,8 @@
       <c r="BO71" s="6"/>
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11546,8 +11531,8 @@
       <c r="BO72" s="6"/>
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11615,8 +11600,8 @@
       <c r="BO73" s="6"/>
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11684,8 +11669,8 @@
       <c r="BO74" s="6"/>
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11753,8 +11738,8 @@
       <c r="BO75" s="6"/>
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11822,8 +11807,8 @@
       <c r="BO76" s="6"/>
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11891,8 +11876,8 @@
       <c r="BO77" s="6"/>
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11960,8 +11945,8 @@
       <c r="BO78" s="6"/>
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -12029,8 +12014,8 @@
       <c r="BO79" s="6"/>
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -12098,8 +12083,8 @@
       <c r="BO80" s="6"/>
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -12167,8 +12152,8 @@
       <c r="BO81" s="6"/>
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -12236,8 +12221,8 @@
       <c r="BO82" s="6"/>
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -12305,8 +12290,8 @@
       <c r="BO83" s="6"/>
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -12374,8 +12359,8 @@
       <c r="BO84" s="6"/>
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -12443,8 +12428,8 @@
       <c r="BO85" s="6"/>
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -12512,8 +12497,8 @@
       <c r="BO86" s="6"/>
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -12581,8 +12566,8 @@
       <c r="BO87" s="6"/>
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -12650,8 +12635,8 @@
       <c r="BO88" s="6"/>
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -12719,8 +12704,8 @@
       <c r="BO89" s="6"/>
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -12788,8 +12773,8 @@
       <c r="BO90" s="6"/>
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -12857,8 +12842,8 @@
       <c r="BO91" s="6"/>
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -12926,8 +12911,8 @@
       <c r="BO92" s="6"/>
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12995,8 +12980,8 @@
       <c r="BO93" s="6"/>
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -13064,8 +13049,8 @@
       <c r="BO94" s="6"/>
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -13133,8 +13118,8 @@
       <c r="BO95" s="6"/>
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -13202,8 +13187,8 @@
       <c r="BO96" s="6"/>
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -13271,8 +13256,8 @@
       <c r="BO97" s="6"/>
     </row>
     <row r="98" spans="1:67" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -13340,8 +13325,8 @@
       <c r="BO98" s="6"/>
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -13409,8 +13394,8 @@
       <c r="BO99" s="6"/>
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -13478,8 +13463,8 @@
       <c r="BO100" s="6"/>
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -13547,8 +13532,8 @@
       <c r="BO101" s="6"/>
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -13616,8 +13601,8 @@
       <c r="BO102" s="6"/>
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -13685,8 +13670,8 @@
       <c r="BO103" s="6"/>
     </row>
     <row r="104" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -13754,8 +13739,8 @@
       <c r="BO104" s="6"/>
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -13823,8 +13808,8 @@
       <c r="BO105" s="6"/>
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -13892,8 +13877,8 @@
       <c r="BO106" s="6"/>
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -13961,8 +13946,8 @@
       <c r="BO107" s="6"/>
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -14030,8 +14015,8 @@
       <c r="BO108" s="6"/>
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -14099,8 +14084,8 @@
       <c r="BO109" s="6"/>
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -14168,8 +14153,8 @@
       <c r="BO110" s="6"/>
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -14237,8 +14222,8 @@
       <c r="BO111" s="6"/>
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -14306,8 +14291,8 @@
       <c r="BO112" s="6"/>
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -14375,8 +14360,8 @@
       <c r="BO113" s="6"/>
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -14444,8 +14429,8 @@
       <c r="BO114" s="6"/>
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -14513,8 +14498,8 @@
       <c r="BO115" s="6"/>
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -14582,8 +14567,8 @@
       <c r="BO116" s="6"/>
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -14651,8 +14636,8 @@
       <c r="BO117" s="6"/>
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14720,8 +14705,8 @@
       <c r="BO118" s="6"/>
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14789,8 +14774,8 @@
       <c r="BO119" s="6"/>
     </row>
     <row r="120" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -14858,10 +14843,10 @@
       <c r="BO120" s="8"/>
     </row>
     <row r="121" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -14929,8 +14914,8 @@
       <c r="BO121" s="5"/>
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -14998,8 +14983,8 @@
       <c r="BO122" s="6"/>
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15067,8 +15052,8 @@
       <c r="BO123" s="6"/>
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15136,8 +15121,8 @@
       <c r="BO124" s="6"/>
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15205,8 +15190,8 @@
       <c r="BO125" s="6"/>
     </row>
     <row r="126" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15274,8 +15259,8 @@
       <c r="BO126" s="6"/>
     </row>
     <row r="127" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15343,8 +15328,8 @@
       <c r="BO127" s="6"/>
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15412,8 +15397,8 @@
       <c r="BO128" s="6"/>
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15481,8 +15466,8 @@
       <c r="BO129" s="6"/>
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15550,8 +15535,8 @@
       <c r="BO130" s="6"/>
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15619,8 +15604,8 @@
       <c r="BO131" s="6"/>
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -15688,8 +15673,8 @@
       <c r="BO132" s="6"/>
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -15757,8 +15742,8 @@
       <c r="BO133" s="6"/>
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -15826,8 +15811,8 @@
       <c r="BO134" s="6"/>
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -15895,8 +15880,8 @@
       <c r="BO135" s="6"/>
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -15964,8 +15949,8 @@
       <c r="BO136" s="6"/>
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16033,8 +16018,8 @@
       <c r="BO137" s="6"/>
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16102,8 +16087,8 @@
       <c r="BO138" s="6"/>
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16171,8 +16156,8 @@
       <c r="BO139" s="6"/>
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16240,8 +16225,8 @@
       <c r="BO140" s="6"/>
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16309,8 +16294,8 @@
       <c r="BO141" s="6"/>
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16378,8 +16363,8 @@
       <c r="BO142" s="6"/>
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -16447,8 +16432,8 @@
       <c r="BO143" s="6"/>
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -16516,8 +16501,8 @@
       <c r="BO144" s="6"/>
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -16585,8 +16570,8 @@
       <c r="BO145" s="6"/>
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -16654,8 +16639,8 @@
       <c r="BO146" s="6"/>
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -16723,8 +16708,8 @@
       <c r="BO147" s="6"/>
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -16792,8 +16777,8 @@
       <c r="BO148" s="6"/>
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -16861,8 +16846,8 @@
       <c r="BO149" s="6"/>
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -16930,8 +16915,8 @@
       <c r="BO150" s="6"/>
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -16999,8 +16984,8 @@
       <c r="BO151" s="6"/>
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17068,8 +17053,8 @@
       <c r="BO152" s="6"/>
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17137,8 +17122,8 @@
       <c r="BO153" s="6"/>
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -17206,8 +17191,8 @@
       <c r="BO154" s="6"/>
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -17275,8 +17260,8 @@
       <c r="BO155" s="6"/>
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -17344,8 +17329,8 @@
       <c r="BO156" s="6"/>
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -17413,8 +17398,8 @@
       <c r="BO157" s="6"/>
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -17482,8 +17467,8 @@
       <c r="BO158" s="6"/>
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17551,8 +17536,8 @@
       <c r="BO159" s="6"/>
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -17620,8 +17605,8 @@
       <c r="BO160" s="6"/>
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -17689,8 +17674,8 @@
       <c r="BO161" s="6"/>
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A162" s="19"/>
-      <c r="B162" s="19"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -17758,8 +17743,8 @@
       <c r="BO162" s="6"/>
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -17827,8 +17812,8 @@
       <c r="BO163" s="6"/>
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -17896,8 +17881,8 @@
       <c r="BO164" s="6"/>
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -17966,6 +17951,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BI1:BO3"/>
+    <mergeCell ref="AQ1:BH3"/>
+    <mergeCell ref="AG1:AP3"/>
+    <mergeCell ref="W2:AF3"/>
+    <mergeCell ref="A42:B120"/>
     <mergeCell ref="A121:B165"/>
     <mergeCell ref="A4:B41"/>
     <mergeCell ref="A1:B3"/>
@@ -17973,11 +17963,6 @@
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C2:V2"/>
     <mergeCell ref="C1:AF1"/>
-    <mergeCell ref="BI1:BO3"/>
-    <mergeCell ref="AQ1:BH3"/>
-    <mergeCell ref="AG1:AP3"/>
-    <mergeCell ref="W2:AF3"/>
-    <mergeCell ref="A42:B120"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_document/フロー図.xlsx
+++ b/01_document/フロー図.xlsx
@@ -499,6 +499,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,36 +572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,13 +631,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>155091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -694,13 +694,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>43676</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>155090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>173217</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -803,7 +803,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ</a:t>
+            <a:t>社員</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1033,7 +1033,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ情報</a:t>
+            <a:t>社員</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1435,13 +1435,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>847</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>55133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1492,13 +1492,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>45944</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>155314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>170948</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1555,13 +1555,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>847</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>27567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>45944</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>77657</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1605,13 +1605,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1668,13 +1668,13 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>108447</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>111169</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1723,13 +1723,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>73639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1779,13 +1779,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>80685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1835,13 +1835,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>120639</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1890,13 +1890,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>124163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1945,13 +1945,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1961,8 +1961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10384971" y="5061857"/>
-          <a:ext cx="783772" cy="816427"/>
+          <a:off x="10096500" y="6172200"/>
+          <a:ext cx="1143000" cy="833844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,6 +2033,22 @@
             </a:rPr>
             <a:t>評価者</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質問グループ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2042,13 +2058,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2171,13 +2187,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>134536</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2308,13 +2324,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2364,13 +2380,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2419,13 +2435,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>50261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2476,13 +2492,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>8196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2539,13 +2555,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>25131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>87918</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2589,13 +2605,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>179583</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>136235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2642,13 +2658,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>57304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2699,13 +2715,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>113027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2856,29 +2872,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>190016</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101754</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>6773</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>4234</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="129" name="カギ線コネクタ 128"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
+          <a:stCxn id="117" idx="2"/>
           <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9681982" y="4619702"/>
-          <a:ext cx="231168" cy="12700"/>
+          <a:off x="9656673" y="5570296"/>
+          <a:ext cx="285597" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2908,13 +2924,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>189594</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>63653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6352</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>119376</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2958,13 +2974,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>28652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>43676</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>77546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3010,13 +3026,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>138157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>77546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3062,13 +3078,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>62127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3115,13 +3131,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>135768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3168,13 +3184,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>188322</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3287,13 +3303,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57693</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3387,13 +3403,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3450,13 +3466,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>65317</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>124226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3506,13 +3522,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>65316</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>65</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13197</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>83822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3561,13 +3577,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3687,13 +3703,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3743,13 +3759,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>65318</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>121984</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3796,13 +3812,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>37141</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>10884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3874,13 +3890,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>16785</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>140077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180006</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>27052</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3931,13 +3947,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>18856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>27052</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3994,13 +4010,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180006</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>106774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>167385</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4044,13 +4060,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>136235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>425</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>140077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4097,13 +4113,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>32722</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>50260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4162,13 +4178,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>133318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4225,13 +4241,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>25130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>53596</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4277,13 +4293,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>169374</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>29968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4340,13 +4356,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>25130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>109690</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4392,13 +4408,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>8196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4455,13 +4471,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>16361</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>50260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>87918</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4505,13 +4521,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>130627</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>188322</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4586,13 +4602,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4667,13 +4683,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>50259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4725,13 +4741,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>69482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4791,13 +4807,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>6716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4857,13 +4873,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>170512</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>56608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>183212</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>75831</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4909,13 +4925,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>170512</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>126092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>183212</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>126091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4961,13 +4977,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>111547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5024,13 +5040,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>169374</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>127937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5087,13 +5103,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163222</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>25130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47519</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>40020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5139,13 +5155,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>147049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>31825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5191,13 +5207,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>163222</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>94614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47519</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>40021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5243,13 +5259,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>37140</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5324,13 +5340,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>50260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5382,13 +5398,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>69483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5440,13 +5456,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>6718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5506,13 +5522,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>173233</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>56610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>185933</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>75833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5558,13 +5574,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>173233</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>126093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>185933</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>126093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5610,13 +5626,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>111548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>172069</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5673,13 +5689,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>169374</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>127938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5736,13 +5752,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>156755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>42583</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5817,13 +5833,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5923,13 +5939,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>50261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5989,13 +6005,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>173234</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>13067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>185934</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>6349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6041,13 +6057,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>139548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>176860</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6094,13 +6110,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6157,13 +6173,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6254,13 +6270,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>77995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6310,13 +6326,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13197</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>122817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6365,13 +6381,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6420,13 +6436,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>25132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>42198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6472,13 +6488,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163222</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>144875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>34004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6524,13 +6540,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>163221</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>94613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>47518</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>42197</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6576,13 +6592,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6641,13 +6657,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>77657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>45944</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>49338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6760,14 +6776,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6777,8 +6793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6662057" y="4408714"/>
-          <a:ext cx="1967049" cy="1143000"/>
+          <a:off x="6583680" y="5501640"/>
+          <a:ext cx="1912620" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6837,13 +6853,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7025,13 +7041,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>188322</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7093,13 +7109,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>188322</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7161,13 +7177,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7263,13 +7279,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7333,13 +7349,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>188323</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7417,13 +7433,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>152397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7485,13 +7501,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7548,13 +7564,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>73639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7604,13 +7620,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>80685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7660,13 +7676,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>120639</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7715,13 +7731,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>124163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7770,13 +7786,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7835,13 +7851,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7891,13 +7907,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>13196</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7946,13 +7962,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8010,6 +8026,226 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="フローチャート: 処理 116"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9209314" y="4718956"/>
+          <a:ext cx="1184124" cy="710447"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問グループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>4235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="カギ線コネクタ 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="117" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9501553" y="4648205"/>
+          <a:ext cx="217205" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>147864</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="フローチャート: 磁気ディスク 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11643360" y="4818530"/>
+          <a:ext cx="887004" cy="934570"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>質問グループマスタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="3"/>
+          <a:endCxn id="132" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10104967" y="5176505"/>
+          <a:ext cx="1538393" cy="109310"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8305,245 +8541,245 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO165"/>
+  <dimension ref="A1:BO171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V131" sqref="V131"/>
+      <selection pane="bottomRight" activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25" t="s">
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="27"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="11"/>
     </row>
     <row r="2" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="29"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="14"/>
     </row>
     <row r="3" spans="1:67" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="22" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="16"/>
     </row>
     <row r="4" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="21"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
       <c r="U4" s="4"/>
@@ -8563,8 +8799,8 @@
       <c r="BO4" s="6"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
       <c r="U5" s="2"/>
@@ -8585,8 +8821,8 @@
       <c r="BO5" s="6"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="K6" s="2"/>
       <c r="L6" s="6"/>
       <c r="U6" s="2"/>
@@ -8607,8 +8843,8 @@
       <c r="BO6" s="6"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="K7" s="2"/>
       <c r="L7" s="6"/>
       <c r="U7" s="2"/>
@@ -8628,8 +8864,8 @@
       <c r="BO7" s="6"/>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="U8" s="2"/>
@@ -8649,8 +8885,8 @@
       <c r="BO8" s="6"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="K9" s="2"/>
       <c r="L9" s="6"/>
       <c r="U9" s="2"/>
@@ -8670,8 +8906,8 @@
       <c r="BO9" s="6"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="K10" s="2"/>
       <c r="L10" s="6"/>
       <c r="U10" s="2"/>
@@ -8691,8 +8927,8 @@
       <c r="BO10" s="6"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
       <c r="U11" s="2"/>
@@ -8712,8 +8948,8 @@
       <c r="BO11" s="6"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
       <c r="U12" s="2"/>
@@ -8733,8 +8969,8 @@
       <c r="BO12" s="6"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
       <c r="U13" s="2"/>
@@ -8754,8 +8990,8 @@
       <c r="BO13" s="6"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
       <c r="U14" s="2"/>
@@ -8775,8 +9011,8 @@
       <c r="BO14" s="6"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
       <c r="U15" s="2"/>
@@ -8796,8 +9032,8 @@
       <c r="BO15" s="6"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="K16" s="2"/>
       <c r="L16" s="6"/>
       <c r="U16" s="2"/>
@@ -8817,8 +9053,8 @@
       <c r="BO16" s="6"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="K17" s="2"/>
       <c r="L17" s="6"/>
       <c r="U17" s="2"/>
@@ -8838,8 +9074,8 @@
       <c r="BO17" s="6"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="K18" s="2"/>
       <c r="L18" s="6"/>
       <c r="U18" s="2"/>
@@ -8859,8 +9095,8 @@
       <c r="BO18" s="6"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="K19" s="2"/>
       <c r="L19" s="6"/>
       <c r="U19" s="2"/>
@@ -8880,8 +9116,8 @@
       <c r="BO19" s="6"/>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="K20" s="2"/>
       <c r="L20" s="6"/>
       <c r="U20" s="2"/>
@@ -8901,8 +9137,8 @@
       <c r="BO20" s="6"/>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="K21" s="2"/>
       <c r="L21" s="6"/>
       <c r="U21" s="2"/>
@@ -8922,8 +9158,8 @@
       <c r="BO21" s="6"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="K22" s="2"/>
       <c r="L22" s="6"/>
       <c r="U22" s="2"/>
@@ -8943,8 +9179,8 @@
       <c r="BO22" s="6"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="K23" s="2"/>
       <c r="L23" s="6"/>
       <c r="U23" s="2"/>
@@ -8964,8 +9200,8 @@
       <c r="BO23" s="6"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="K24" s="2"/>
       <c r="L24" s="6"/>
       <c r="U24" s="2"/>
@@ -8985,8 +9221,8 @@
       <c r="BO24" s="6"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="K25" s="2"/>
       <c r="L25" s="6"/>
       <c r="U25" s="2"/>
@@ -9006,8 +9242,8 @@
       <c r="BO25" s="6"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="K26" s="2"/>
       <c r="L26" s="6"/>
       <c r="U26" s="2"/>
@@ -9027,8 +9263,8 @@
       <c r="BO26" s="6"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="K27" s="2"/>
       <c r="L27" s="6"/>
       <c r="U27" s="2"/>
@@ -9048,8 +9284,8 @@
       <c r="BO27" s="6"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="K28" s="2"/>
       <c r="L28" s="6"/>
       <c r="U28" s="2"/>
@@ -9069,8 +9305,8 @@
       <c r="BO28" s="6"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
       <c r="K29" s="2"/>
       <c r="L29" s="6"/>
       <c r="U29" s="2"/>
@@ -9090,8 +9326,8 @@
       <c r="BO29" s="6"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="K30" s="2"/>
       <c r="L30" s="6"/>
       <c r="U30" s="2"/>
@@ -9111,8 +9347,8 @@
       <c r="BO30" s="6"/>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="K31" s="2"/>
       <c r="L31" s="6"/>
       <c r="U31" s="2"/>
@@ -9132,8 +9368,8 @@
       <c r="BO31" s="6"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="K32" s="2"/>
       <c r="L32" s="6"/>
       <c r="U32" s="2"/>
@@ -9144,7 +9380,7 @@
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="6"/>
-      <c r="BI32" s="2"/>
+      <c r="BI32" s="1"/>
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
@@ -9153,8 +9389,8 @@
       <c r="BO32" s="6"/>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="U33" s="2"/>
@@ -9165,7 +9401,7 @@
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
       <c r="BH33" s="6"/>
-      <c r="BI33" s="2"/>
+      <c r="BI33" s="1"/>
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
@@ -9174,8 +9410,8 @@
       <c r="BO33" s="6"/>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="K34" s="2"/>
       <c r="L34" s="6"/>
       <c r="U34" s="2"/>
@@ -9186,7 +9422,7 @@
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="6"/>
-      <c r="BI34" s="2"/>
+      <c r="BI34" s="1"/>
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="2"/>
@@ -9195,8 +9431,8 @@
       <c r="BO34" s="6"/>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
       <c r="K35" s="2"/>
       <c r="L35" s="6"/>
       <c r="U35" s="2"/>
@@ -9207,7 +9443,7 @@
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="6"/>
-      <c r="BI35" s="2"/>
+      <c r="BI35" s="1"/>
       <c r="BJ35" s="2"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="2"/>
@@ -9216,8 +9452,8 @@
       <c r="BO35" s="6"/>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="K36" s="2"/>
       <c r="L36" s="6"/>
       <c r="U36" s="2"/>
@@ -9228,7 +9464,7 @@
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
       <c r="BH36" s="6"/>
-      <c r="BI36" s="2"/>
+      <c r="BI36" s="1"/>
       <c r="BJ36" s="2"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="2"/>
@@ -9237,8 +9473,8 @@
       <c r="BO36" s="6"/>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="K37" s="2"/>
       <c r="L37" s="6"/>
       <c r="U37" s="2"/>
@@ -9249,7 +9485,7 @@
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="6"/>
-      <c r="BI37" s="2"/>
+      <c r="BI37" s="1"/>
       <c r="BJ37" s="2"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
@@ -9258,8 +9494,8 @@
       <c r="BO37" s="6"/>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="K38" s="2"/>
       <c r="L38" s="6"/>
       <c r="U38" s="2"/>
@@ -9279,8 +9515,8 @@
       <c r="BO38" s="6"/>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="K39" s="2"/>
       <c r="L39" s="6"/>
       <c r="U39" s="2"/>
@@ -9300,8 +9536,8 @@
       <c r="BO39" s="6"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="K40" s="2"/>
       <c r="L40" s="6"/>
       <c r="U40" s="2"/>
@@ -9321,203 +9557,57 @@
       <c r="BO40" s="6"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="8"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
-      <c r="BK41" s="3"/>
-      <c r="BL41" s="3"/>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
-      <c r="BO41" s="8"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="6"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="6"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="6"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="6"/>
     </row>
-    <row r="42" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
-      <c r="BO42" s="5"/>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="6"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="6"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="6"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
       <c r="K43" s="2"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="6"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
       <c r="AP43" s="6"/>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
       <c r="BH43" s="6"/>
@@ -9530,63 +9620,15 @@
       <c r="BO43" s="6"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
       <c r="K44" s="2"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="6"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
       <c r="AP44" s="6"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
       <c r="BH44" s="6"/>
@@ -9599,63 +9641,15 @@
       <c r="BO44" s="6"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
       <c r="K45" s="2"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="6"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
       <c r="AP45" s="6"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
-      <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
       <c r="BH45" s="6"/>
@@ -9668,63 +9662,15 @@
       <c r="BO45" s="6"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
       <c r="K46" s="2"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="6"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2"/>
       <c r="AP46" s="6"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
       <c r="BH46" s="6"/>
@@ -9737,146 +9683,148 @@
       <c r="BO46" s="6"/>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="6"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="2"/>
-      <c r="BH47" s="6"/>
-      <c r="BI47" s="2"/>
-      <c r="BJ47" s="2"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47" s="2"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47" s="2"/>
-      <c r="BO47" s="6"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="8"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="8"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="6"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
-      <c r="BF48" s="2"/>
-      <c r="BG48" s="2"/>
-      <c r="BH48" s="6"/>
-      <c r="BI48" s="2"/>
-      <c r="BJ48" s="2"/>
-      <c r="BK48" s="2"/>
-      <c r="BL48" s="2"/>
-      <c r="BM48" s="2"/>
-      <c r="BN48" s="2"/>
-      <c r="BO48" s="6"/>
+    <row r="48" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="4"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+      <c r="BO48" s="5"/>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -9944,8 +9892,8 @@
       <c r="BO49" s="6"/>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10013,8 +9961,8 @@
       <c r="BO50" s="6"/>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10082,8 +10030,8 @@
       <c r="BO51" s="6"/>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10151,8 +10099,8 @@
       <c r="BO52" s="6"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10220,8 +10168,8 @@
       <c r="BO53" s="6"/>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10289,8 +10237,8 @@
       <c r="BO54" s="6"/>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10358,8 +10306,8 @@
       <c r="BO55" s="6"/>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10427,8 +10375,8 @@
       <c r="BO56" s="6"/>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10496,8 +10444,8 @@
       <c r="BO57" s="6"/>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10565,8 +10513,8 @@
       <c r="BO58" s="6"/>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10634,8 +10582,8 @@
       <c r="BO59" s="6"/>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10703,8 +10651,8 @@
       <c r="BO60" s="6"/>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10772,8 +10720,8 @@
       <c r="BO61" s="6"/>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10841,8 +10789,8 @@
       <c r="BO62" s="6"/>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10910,8 +10858,8 @@
       <c r="BO63" s="6"/>
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10979,8 +10927,8 @@
       <c r="BO64" s="6"/>
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11048,8 +10996,8 @@
       <c r="BO65" s="6"/>
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11117,8 +11065,8 @@
       <c r="BO66" s="6"/>
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -11186,8 +11134,8 @@
       <c r="BO67" s="6"/>
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11255,8 +11203,8 @@
       <c r="BO68" s="6"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11324,8 +11272,8 @@
       <c r="BO69" s="6"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11393,8 +11341,8 @@
       <c r="BO70" s="6"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11462,8 +11410,8 @@
       <c r="BO71" s="6"/>
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11531,8 +11479,8 @@
       <c r="BO72" s="6"/>
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11600,8 +11548,8 @@
       <c r="BO73" s="6"/>
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11669,8 +11617,8 @@
       <c r="BO74" s="6"/>
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11738,8 +11686,8 @@
       <c r="BO75" s="6"/>
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11807,8 +11755,8 @@
       <c r="BO76" s="6"/>
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11876,8 +11824,8 @@
       <c r="BO77" s="6"/>
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11945,8 +11893,8 @@
       <c r="BO78" s="6"/>
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -12014,8 +11962,8 @@
       <c r="BO79" s="6"/>
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -12083,8 +12031,8 @@
       <c r="BO80" s="6"/>
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -12152,8 +12100,8 @@
       <c r="BO81" s="6"/>
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -12221,8 +12169,8 @@
       <c r="BO82" s="6"/>
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -12290,8 +12238,8 @@
       <c r="BO83" s="6"/>
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -12359,8 +12307,8 @@
       <c r="BO84" s="6"/>
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -12428,8 +12376,8 @@
       <c r="BO85" s="6"/>
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -12497,8 +12445,8 @@
       <c r="BO86" s="6"/>
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -12566,8 +12514,8 @@
       <c r="BO87" s="6"/>
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -12635,8 +12583,8 @@
       <c r="BO88" s="6"/>
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -12704,8 +12652,8 @@
       <c r="BO89" s="6"/>
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -12773,8 +12721,8 @@
       <c r="BO90" s="6"/>
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -12842,8 +12790,8 @@
       <c r="BO91" s="6"/>
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -12911,8 +12859,8 @@
       <c r="BO92" s="6"/>
     </row>
     <row r="93" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12980,8 +12928,8 @@
       <c r="BO93" s="6"/>
     </row>
     <row r="94" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -13049,8 +12997,8 @@
       <c r="BO94" s="6"/>
     </row>
     <row r="95" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -13118,8 +13066,8 @@
       <c r="BO95" s="6"/>
     </row>
     <row r="96" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -13187,8 +13135,8 @@
       <c r="BO96" s="6"/>
     </row>
     <row r="97" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -13255,9 +13203,9 @@
       <c r="BN97" s="2"/>
       <c r="BO97" s="6"/>
     </row>
-    <row r="98" spans="1:67" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
+    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -13325,8 +13273,8 @@
       <c r="BO98" s="6"/>
     </row>
     <row r="99" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -13394,8 +13342,8 @@
       <c r="BO99" s="6"/>
     </row>
     <row r="100" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -13463,8 +13411,8 @@
       <c r="BO100" s="6"/>
     </row>
     <row r="101" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -13532,8 +13480,8 @@
       <c r="BO101" s="6"/>
     </row>
     <row r="102" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -13601,8 +13549,8 @@
       <c r="BO102" s="6"/>
     </row>
     <row r="103" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -13669,9 +13617,9 @@
       <c r="BN103" s="2"/>
       <c r="BO103" s="6"/>
     </row>
-    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
+    <row r="104" spans="1:67" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -13739,8 +13687,8 @@
       <c r="BO104" s="6"/>
     </row>
     <row r="105" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -13808,8 +13756,8 @@
       <c r="BO105" s="6"/>
     </row>
     <row r="106" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -13877,8 +13825,8 @@
       <c r="BO106" s="6"/>
     </row>
     <row r="107" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -13946,8 +13894,8 @@
       <c r="BO107" s="6"/>
     </row>
     <row r="108" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -14015,8 +13963,8 @@
       <c r="BO108" s="6"/>
     </row>
     <row r="109" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -14084,8 +14032,8 @@
       <c r="BO109" s="6"/>
     </row>
     <row r="110" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -14153,8 +14101,8 @@
       <c r="BO110" s="6"/>
     </row>
     <row r="111" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -14222,8 +14170,8 @@
       <c r="BO111" s="6"/>
     </row>
     <row r="112" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -14291,8 +14239,8 @@
       <c r="BO112" s="6"/>
     </row>
     <row r="113" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -14360,8 +14308,8 @@
       <c r="BO113" s="6"/>
     </row>
     <row r="114" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -14429,8 +14377,8 @@
       <c r="BO114" s="6"/>
     </row>
     <row r="115" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -14498,8 +14446,8 @@
       <c r="BO115" s="6"/>
     </row>
     <row r="116" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -14567,8 +14515,8 @@
       <c r="BO116" s="6"/>
     </row>
     <row r="117" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -14636,8 +14584,8 @@
       <c r="BO117" s="6"/>
     </row>
     <row r="118" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14705,8 +14653,8 @@
       <c r="BO118" s="6"/>
     </row>
     <row r="119" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14773,149 +14721,147 @@
       <c r="BN119" s="2"/>
       <c r="BO119" s="6"/>
     </row>
-    <row r="120" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-      <c r="AF120" s="8"/>
-      <c r="AG120" s="3"/>
-      <c r="AH120" s="3"/>
-      <c r="AI120" s="3"/>
-      <c r="AJ120" s="3"/>
-      <c r="AK120" s="3"/>
-      <c r="AL120" s="3"/>
-      <c r="AM120" s="3"/>
-      <c r="AN120" s="3"/>
-      <c r="AO120" s="3"/>
-      <c r="AP120" s="8"/>
-      <c r="AQ120" s="3"/>
-      <c r="AR120" s="3"/>
-      <c r="AS120" s="3"/>
-      <c r="AT120" s="3"/>
-      <c r="AU120" s="3"/>
-      <c r="AV120" s="3"/>
-      <c r="AW120" s="3"/>
-      <c r="AX120" s="3"/>
-      <c r="AY120" s="3"/>
-      <c r="AZ120" s="3"/>
-      <c r="BA120" s="3"/>
-      <c r="BB120" s="3"/>
-      <c r="BC120" s="3"/>
-      <c r="BD120" s="3"/>
-      <c r="BE120" s="3"/>
-      <c r="BF120" s="3"/>
-      <c r="BG120" s="3"/>
-      <c r="BH120" s="8"/>
-      <c r="BI120" s="3"/>
-      <c r="BJ120" s="3"/>
-      <c r="BK120" s="3"/>
-      <c r="BL120" s="3"/>
-      <c r="BM120" s="3"/>
-      <c r="BN120" s="3"/>
-      <c r="BO120" s="8"/>
+    <row r="120" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="6"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2"/>
+      <c r="AJ120" s="2"/>
+      <c r="AK120" s="2"/>
+      <c r="AL120" s="2"/>
+      <c r="AM120" s="2"/>
+      <c r="AN120" s="2"/>
+      <c r="AO120" s="2"/>
+      <c r="AP120" s="6"/>
+      <c r="AQ120" s="2"/>
+      <c r="AR120" s="2"/>
+      <c r="AS120" s="2"/>
+      <c r="AT120" s="2"/>
+      <c r="AU120" s="2"/>
+      <c r="AV120" s="2"/>
+      <c r="AW120" s="2"/>
+      <c r="AX120" s="2"/>
+      <c r="AY120" s="2"/>
+      <c r="AZ120" s="2"/>
+      <c r="BA120" s="2"/>
+      <c r="BB120" s="2"/>
+      <c r="BC120" s="2"/>
+      <c r="BD120" s="2"/>
+      <c r="BE120" s="2"/>
+      <c r="BF120" s="2"/>
+      <c r="BG120" s="2"/>
+      <c r="BH120" s="6"/>
+      <c r="BI120" s="2"/>
+      <c r="BJ120" s="2"/>
+      <c r="BK120" s="2"/>
+      <c r="BL120" s="2"/>
+      <c r="BM120" s="2"/>
+      <c r="BN120" s="2"/>
+      <c r="BO120" s="6"/>
     </row>
-    <row r="121" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="4"/>
-      <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-      <c r="AB121" s="4"/>
-      <c r="AC121" s="4"/>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4"/>
-      <c r="AF121" s="5"/>
-      <c r="AG121" s="4"/>
-      <c r="AH121" s="4"/>
-      <c r="AI121" s="4"/>
-      <c r="AJ121" s="4"/>
-      <c r="AK121" s="4"/>
-      <c r="AL121" s="4"/>
-      <c r="AM121" s="4"/>
-      <c r="AN121" s="4"/>
-      <c r="AO121" s="4"/>
-      <c r="AP121" s="5"/>
-      <c r="AQ121" s="4"/>
-      <c r="AR121" s="4"/>
-      <c r="AS121" s="4"/>
-      <c r="AT121" s="4"/>
-      <c r="AU121" s="4"/>
-      <c r="AV121" s="4"/>
-      <c r="AW121" s="4"/>
-      <c r="AX121" s="4"/>
-      <c r="AY121" s="4"/>
-      <c r="AZ121" s="4"/>
-      <c r="BA121" s="4"/>
-      <c r="BB121" s="4"/>
-      <c r="BC121" s="4"/>
-      <c r="BD121" s="4"/>
-      <c r="BE121" s="4"/>
-      <c r="BF121" s="4"/>
-      <c r="BG121" s="4"/>
-      <c r="BH121" s="5"/>
-      <c r="BI121" s="4"/>
-      <c r="BJ121" s="4"/>
-      <c r="BK121" s="4"/>
-      <c r="BL121" s="4"/>
-      <c r="BM121" s="4"/>
-      <c r="BN121" s="4"/>
-      <c r="BO121" s="5"/>
+    <row r="121" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="6"/>
+      <c r="AG121" s="2"/>
+      <c r="AH121" s="2"/>
+      <c r="AI121" s="2"/>
+      <c r="AJ121" s="2"/>
+      <c r="AK121" s="2"/>
+      <c r="AL121" s="2"/>
+      <c r="AM121" s="2"/>
+      <c r="AN121" s="2"/>
+      <c r="AO121" s="2"/>
+      <c r="AP121" s="6"/>
+      <c r="AQ121" s="2"/>
+      <c r="AR121" s="2"/>
+      <c r="AS121" s="2"/>
+      <c r="AT121" s="2"/>
+      <c r="AU121" s="2"/>
+      <c r="AV121" s="2"/>
+      <c r="AW121" s="2"/>
+      <c r="AX121" s="2"/>
+      <c r="AY121" s="2"/>
+      <c r="AZ121" s="2"/>
+      <c r="BA121" s="2"/>
+      <c r="BB121" s="2"/>
+      <c r="BC121" s="2"/>
+      <c r="BD121" s="2"/>
+      <c r="BE121" s="2"/>
+      <c r="BF121" s="2"/>
+      <c r="BG121" s="2"/>
+      <c r="BH121" s="6"/>
+      <c r="BI121" s="2"/>
+      <c r="BJ121" s="2"/>
+      <c r="BK121" s="2"/>
+      <c r="BL121" s="2"/>
+      <c r="BM121" s="2"/>
+      <c r="BN121" s="2"/>
+      <c r="BO121" s="6"/>
     </row>
     <row r="122" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -14983,8 +14929,8 @@
       <c r="BO122" s="6"/>
     </row>
     <row r="123" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15052,8 +14998,8 @@
       <c r="BO123" s="6"/>
     </row>
     <row r="124" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15121,8 +15067,8 @@
       <c r="BO124" s="6"/>
     </row>
     <row r="125" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15189,147 +15135,149 @@
       <c r="BN125" s="2"/>
       <c r="BO125" s="6"/>
     </row>
-    <row r="126" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="6"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-      <c r="AB126" s="2"/>
-      <c r="AC126" s="2"/>
-      <c r="AD126" s="2"/>
-      <c r="AE126" s="2"/>
-      <c r="AF126" s="6"/>
-      <c r="AG126" s="2"/>
-      <c r="AH126" s="2"/>
-      <c r="AI126" s="2"/>
-      <c r="AJ126" s="2"/>
-      <c r="AK126" s="2"/>
-      <c r="AL126" s="2"/>
-      <c r="AM126" s="2"/>
-      <c r="AN126" s="2"/>
-      <c r="AO126" s="2"/>
-      <c r="AP126" s="6"/>
-      <c r="AQ126" s="2"/>
-      <c r="AR126" s="2"/>
-      <c r="AS126" s="2"/>
-      <c r="AT126" s="2"/>
-      <c r="AU126" s="2"/>
-      <c r="AV126" s="2"/>
-      <c r="AW126" s="2"/>
-      <c r="AX126" s="2"/>
-      <c r="AY126" s="2"/>
-      <c r="AZ126" s="2"/>
-      <c r="BA126" s="2"/>
-      <c r="BB126" s="2"/>
-      <c r="BC126" s="2"/>
-      <c r="BD126" s="2"/>
-      <c r="BE126" s="2"/>
-      <c r="BF126" s="2"/>
-      <c r="BG126" s="2"/>
-      <c r="BH126" s="6"/>
-      <c r="BI126" s="2"/>
-      <c r="BJ126" s="2"/>
-      <c r="BK126" s="2"/>
-      <c r="BL126" s="2"/>
-      <c r="BM126" s="2"/>
-      <c r="BN126" s="2"/>
-      <c r="BO126" s="6"/>
+    <row r="126" spans="1:67" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="8"/>
+      <c r="AG126" s="3"/>
+      <c r="AH126" s="3"/>
+      <c r="AI126" s="3"/>
+      <c r="AJ126" s="3"/>
+      <c r="AK126" s="3"/>
+      <c r="AL126" s="3"/>
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3"/>
+      <c r="AO126" s="3"/>
+      <c r="AP126" s="8"/>
+      <c r="AQ126" s="3"/>
+      <c r="AR126" s="3"/>
+      <c r="AS126" s="3"/>
+      <c r="AT126" s="3"/>
+      <c r="AU126" s="3"/>
+      <c r="AV126" s="3"/>
+      <c r="AW126" s="3"/>
+      <c r="AX126" s="3"/>
+      <c r="AY126" s="3"/>
+      <c r="AZ126" s="3"/>
+      <c r="BA126" s="3"/>
+      <c r="BB126" s="3"/>
+      <c r="BC126" s="3"/>
+      <c r="BD126" s="3"/>
+      <c r="BE126" s="3"/>
+      <c r="BF126" s="3"/>
+      <c r="BG126" s="3"/>
+      <c r="BH126" s="8"/>
+      <c r="BI126" s="3"/>
+      <c r="BJ126" s="3"/>
+      <c r="BK126" s="3"/>
+      <c r="BL126" s="3"/>
+      <c r="BM126" s="3"/>
+      <c r="BN126" s="3"/>
+      <c r="BO126" s="8"/>
     </row>
-    <row r="127" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="6"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-      <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="6"/>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
-      <c r="AL127" s="2"/>
-      <c r="AM127" s="2"/>
-      <c r="AN127" s="2"/>
-      <c r="AO127" s="2"/>
-      <c r="AP127" s="6"/>
-      <c r="AQ127" s="2"/>
-      <c r="AR127" s="2"/>
-      <c r="AS127" s="2"/>
-      <c r="AT127" s="2"/>
-      <c r="AU127" s="2"/>
-      <c r="AV127" s="2"/>
-      <c r="AW127" s="2"/>
-      <c r="AX127" s="2"/>
-      <c r="AY127" s="2"/>
-      <c r="AZ127" s="2"/>
-      <c r="BA127" s="2"/>
-      <c r="BB127" s="2"/>
-      <c r="BC127" s="2"/>
-      <c r="BD127" s="2"/>
-      <c r="BE127" s="2"/>
-      <c r="BF127" s="2"/>
-      <c r="BG127" s="2"/>
-      <c r="BH127" s="6"/>
-      <c r="BI127" s="2"/>
-      <c r="BJ127" s="2"/>
-      <c r="BK127" s="2"/>
-      <c r="BL127" s="2"/>
-      <c r="BM127" s="2"/>
-      <c r="BN127" s="2"/>
-      <c r="BO127" s="6"/>
+    <row r="127" spans="1:67" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+      <c r="AE127" s="4"/>
+      <c r="AF127" s="5"/>
+      <c r="AG127" s="4"/>
+      <c r="AH127" s="4"/>
+      <c r="AI127" s="4"/>
+      <c r="AJ127" s="4"/>
+      <c r="AK127" s="4"/>
+      <c r="AL127" s="4"/>
+      <c r="AM127" s="4"/>
+      <c r="AN127" s="4"/>
+      <c r="AO127" s="4"/>
+      <c r="AP127" s="5"/>
+      <c r="AQ127" s="4"/>
+      <c r="AR127" s="4"/>
+      <c r="AS127" s="4"/>
+      <c r="AT127" s="4"/>
+      <c r="AU127" s="4"/>
+      <c r="AV127" s="4"/>
+      <c r="AW127" s="4"/>
+      <c r="AX127" s="4"/>
+      <c r="AY127" s="4"/>
+      <c r="AZ127" s="4"/>
+      <c r="BA127" s="4"/>
+      <c r="BB127" s="4"/>
+      <c r="BC127" s="4"/>
+      <c r="BD127" s="4"/>
+      <c r="BE127" s="4"/>
+      <c r="BF127" s="4"/>
+      <c r="BG127" s="4"/>
+      <c r="BH127" s="5"/>
+      <c r="BI127" s="4"/>
+      <c r="BJ127" s="4"/>
+      <c r="BK127" s="4"/>
+      <c r="BL127" s="4"/>
+      <c r="BM127" s="4"/>
+      <c r="BN127" s="4"/>
+      <c r="BO127" s="5"/>
     </row>
     <row r="128" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15397,8 +15345,8 @@
       <c r="BO128" s="6"/>
     </row>
     <row r="129" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15466,8 +15414,8 @@
       <c r="BO129" s="6"/>
     </row>
     <row r="130" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -15535,8 +15483,8 @@
       <c r="BO130" s="6"/>
     </row>
     <row r="131" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -15604,8 +15552,8 @@
       <c r="BO131" s="6"/>
     </row>
     <row r="132" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -15673,8 +15621,8 @@
       <c r="BO132" s="6"/>
     </row>
     <row r="133" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -15742,8 +15690,8 @@
       <c r="BO133" s="6"/>
     </row>
     <row r="134" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -15811,8 +15759,8 @@
       <c r="BO134" s="6"/>
     </row>
     <row r="135" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -15880,8 +15828,8 @@
       <c r="BO135" s="6"/>
     </row>
     <row r="136" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -15949,8 +15897,8 @@
       <c r="BO136" s="6"/>
     </row>
     <row r="137" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16018,8 +15966,8 @@
       <c r="BO137" s="6"/>
     </row>
     <row r="138" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16087,8 +16035,8 @@
       <c r="BO138" s="6"/>
     </row>
     <row r="139" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16156,8 +16104,8 @@
       <c r="BO139" s="6"/>
     </row>
     <row r="140" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16225,8 +16173,8 @@
       <c r="BO140" s="6"/>
     </row>
     <row r="141" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -16294,8 +16242,8 @@
       <c r="BO141" s="6"/>
     </row>
     <row r="142" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -16363,8 +16311,8 @@
       <c r="BO142" s="6"/>
     </row>
     <row r="143" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -16432,8 +16380,8 @@
       <c r="BO143" s="6"/>
     </row>
     <row r="144" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -16501,8 +16449,8 @@
       <c r="BO144" s="6"/>
     </row>
     <row r="145" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -16570,8 +16518,8 @@
       <c r="BO145" s="6"/>
     </row>
     <row r="146" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -16639,8 +16587,8 @@
       <c r="BO146" s="6"/>
     </row>
     <row r="147" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -16708,8 +16656,8 @@
       <c r="BO147" s="6"/>
     </row>
     <row r="148" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -16777,8 +16725,8 @@
       <c r="BO148" s="6"/>
     </row>
     <row r="149" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -16846,8 +16794,8 @@
       <c r="BO149" s="6"/>
     </row>
     <row r="150" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -16915,8 +16863,8 @@
       <c r="BO150" s="6"/>
     </row>
     <row r="151" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -16984,8 +16932,8 @@
       <c r="BO151" s="6"/>
     </row>
     <row r="152" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -17053,8 +17001,8 @@
       <c r="BO152" s="6"/>
     </row>
     <row r="153" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -17122,8 +17070,8 @@
       <c r="BO153" s="6"/>
     </row>
     <row r="154" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -17191,8 +17139,8 @@
       <c r="BO154" s="6"/>
     </row>
     <row r="155" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -17260,8 +17208,8 @@
       <c r="BO155" s="6"/>
     </row>
     <row r="156" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -17329,8 +17277,8 @@
       <c r="BO156" s="6"/>
     </row>
     <row r="157" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -17398,8 +17346,8 @@
       <c r="BO157" s="6"/>
     </row>
     <row r="158" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -17467,8 +17415,8 @@
       <c r="BO158" s="6"/>
     </row>
     <row r="159" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -17536,8 +17484,8 @@
       <c r="BO159" s="6"/>
     </row>
     <row r="160" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -17605,8 +17553,8 @@
       <c r="BO160" s="6"/>
     </row>
     <row r="161" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -17674,8 +17622,8 @@
       <c r="BO161" s="6"/>
     </row>
     <row r="162" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -17743,8 +17691,8 @@
       <c r="BO162" s="6"/>
     </row>
     <row r="163" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -17812,8 +17760,8 @@
       <c r="BO163" s="6"/>
     </row>
     <row r="164" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -17881,94 +17829,508 @@
       <c r="BO164" s="6"/>
     </row>
     <row r="165" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="8"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-      <c r="AF165" s="8"/>
-      <c r="AG165" s="3"/>
-      <c r="AH165" s="3"/>
-      <c r="AI165" s="3"/>
-      <c r="AJ165" s="3"/>
-      <c r="AK165" s="3"/>
-      <c r="AL165" s="3"/>
-      <c r="AM165" s="3"/>
-      <c r="AN165" s="3"/>
-      <c r="AO165" s="3"/>
-      <c r="AP165" s="8"/>
-      <c r="AQ165" s="3"/>
-      <c r="AR165" s="3"/>
-      <c r="AS165" s="3"/>
-      <c r="AT165" s="3"/>
-      <c r="AU165" s="3"/>
-      <c r="AV165" s="3"/>
-      <c r="AW165" s="3"/>
-      <c r="AX165" s="3"/>
-      <c r="AY165" s="3"/>
-      <c r="AZ165" s="3"/>
-      <c r="BA165" s="3"/>
-      <c r="BB165" s="3"/>
-      <c r="BC165" s="3"/>
-      <c r="BD165" s="3"/>
-      <c r="BE165" s="3"/>
-      <c r="BF165" s="3"/>
-      <c r="BG165" s="3"/>
-      <c r="BH165" s="8"/>
-      <c r="BI165" s="3"/>
-      <c r="BJ165" s="3"/>
-      <c r="BK165" s="3"/>
-      <c r="BL165" s="3"/>
-      <c r="BM165" s="3"/>
-      <c r="BN165" s="3"/>
-      <c r="BO165" s="8"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
+      <c r="AB165" s="2"/>
+      <c r="AC165" s="2"/>
+      <c r="AD165" s="2"/>
+      <c r="AE165" s="2"/>
+      <c r="AF165" s="6"/>
+      <c r="AG165" s="2"/>
+      <c r="AH165" s="2"/>
+      <c r="AI165" s="2"/>
+      <c r="AJ165" s="2"/>
+      <c r="AK165" s="2"/>
+      <c r="AL165" s="2"/>
+      <c r="AM165" s="2"/>
+      <c r="AN165" s="2"/>
+      <c r="AO165" s="2"/>
+      <c r="AP165" s="6"/>
+      <c r="AQ165" s="2"/>
+      <c r="AR165" s="2"/>
+      <c r="AS165" s="2"/>
+      <c r="AT165" s="2"/>
+      <c r="AU165" s="2"/>
+      <c r="AV165" s="2"/>
+      <c r="AW165" s="2"/>
+      <c r="AX165" s="2"/>
+      <c r="AY165" s="2"/>
+      <c r="AZ165" s="2"/>
+      <c r="BA165" s="2"/>
+      <c r="BB165" s="2"/>
+      <c r="BC165" s="2"/>
+      <c r="BD165" s="2"/>
+      <c r="BE165" s="2"/>
+      <c r="BF165" s="2"/>
+      <c r="BG165" s="2"/>
+      <c r="BH165" s="6"/>
+      <c r="BI165" s="2"/>
+      <c r="BJ165" s="2"/>
+      <c r="BK165" s="2"/>
+      <c r="BL165" s="2"/>
+      <c r="BM165" s="2"/>
+      <c r="BN165" s="2"/>
+      <c r="BO165" s="6"/>
+    </row>
+    <row r="166" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
+      <c r="AA166" s="2"/>
+      <c r="AB166" s="2"/>
+      <c r="AC166" s="2"/>
+      <c r="AD166" s="2"/>
+      <c r="AE166" s="2"/>
+      <c r="AF166" s="6"/>
+      <c r="AG166" s="2"/>
+      <c r="AH166" s="2"/>
+      <c r="AI166" s="2"/>
+      <c r="AJ166" s="2"/>
+      <c r="AK166" s="2"/>
+      <c r="AL166" s="2"/>
+      <c r="AM166" s="2"/>
+      <c r="AN166" s="2"/>
+      <c r="AO166" s="2"/>
+      <c r="AP166" s="6"/>
+      <c r="AQ166" s="2"/>
+      <c r="AR166" s="2"/>
+      <c r="AS166" s="2"/>
+      <c r="AT166" s="2"/>
+      <c r="AU166" s="2"/>
+      <c r="AV166" s="2"/>
+      <c r="AW166" s="2"/>
+      <c r="AX166" s="2"/>
+      <c r="AY166" s="2"/>
+      <c r="AZ166" s="2"/>
+      <c r="BA166" s="2"/>
+      <c r="BB166" s="2"/>
+      <c r="BC166" s="2"/>
+      <c r="BD166" s="2"/>
+      <c r="BE166" s="2"/>
+      <c r="BF166" s="2"/>
+      <c r="BG166" s="2"/>
+      <c r="BH166" s="6"/>
+      <c r="BI166" s="2"/>
+      <c r="BJ166" s="2"/>
+      <c r="BK166" s="2"/>
+      <c r="BL166" s="2"/>
+      <c r="BM166" s="2"/>
+      <c r="BN166" s="2"/>
+      <c r="BO166" s="6"/>
+    </row>
+    <row r="167" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
+      <c r="AB167" s="2"/>
+      <c r="AC167" s="2"/>
+      <c r="AD167" s="2"/>
+      <c r="AE167" s="2"/>
+      <c r="AF167" s="6"/>
+      <c r="AG167" s="2"/>
+      <c r="AH167" s="2"/>
+      <c r="AI167" s="2"/>
+      <c r="AJ167" s="2"/>
+      <c r="AK167" s="2"/>
+      <c r="AL167" s="2"/>
+      <c r="AM167" s="2"/>
+      <c r="AN167" s="2"/>
+      <c r="AO167" s="2"/>
+      <c r="AP167" s="6"/>
+      <c r="AQ167" s="2"/>
+      <c r="AR167" s="2"/>
+      <c r="AS167" s="2"/>
+      <c r="AT167" s="2"/>
+      <c r="AU167" s="2"/>
+      <c r="AV167" s="2"/>
+      <c r="AW167" s="2"/>
+      <c r="AX167" s="2"/>
+      <c r="AY167" s="2"/>
+      <c r="AZ167" s="2"/>
+      <c r="BA167" s="2"/>
+      <c r="BB167" s="2"/>
+      <c r="BC167" s="2"/>
+      <c r="BD167" s="2"/>
+      <c r="BE167" s="2"/>
+      <c r="BF167" s="2"/>
+      <c r="BG167" s="2"/>
+      <c r="BH167" s="6"/>
+      <c r="BI167" s="2"/>
+      <c r="BJ167" s="2"/>
+      <c r="BK167" s="2"/>
+      <c r="BL167" s="2"/>
+      <c r="BM167" s="2"/>
+      <c r="BN167" s="2"/>
+      <c r="BO167" s="6"/>
+    </row>
+    <row r="168" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
+      <c r="AB168" s="2"/>
+      <c r="AC168" s="2"/>
+      <c r="AD168" s="2"/>
+      <c r="AE168" s="2"/>
+      <c r="AF168" s="6"/>
+      <c r="AG168" s="2"/>
+      <c r="AH168" s="2"/>
+      <c r="AI168" s="2"/>
+      <c r="AJ168" s="2"/>
+      <c r="AK168" s="2"/>
+      <c r="AL168" s="2"/>
+      <c r="AM168" s="2"/>
+      <c r="AN168" s="2"/>
+      <c r="AO168" s="2"/>
+      <c r="AP168" s="6"/>
+      <c r="AQ168" s="2"/>
+      <c r="AR168" s="2"/>
+      <c r="AS168" s="2"/>
+      <c r="AT168" s="2"/>
+      <c r="AU168" s="2"/>
+      <c r="AV168" s="2"/>
+      <c r="AW168" s="2"/>
+      <c r="AX168" s="2"/>
+      <c r="AY168" s="2"/>
+      <c r="AZ168" s="2"/>
+      <c r="BA168" s="2"/>
+      <c r="BB168" s="2"/>
+      <c r="BC168" s="2"/>
+      <c r="BD168" s="2"/>
+      <c r="BE168" s="2"/>
+      <c r="BF168" s="2"/>
+      <c r="BG168" s="2"/>
+      <c r="BH168" s="6"/>
+      <c r="BI168" s="2"/>
+      <c r="BJ168" s="2"/>
+      <c r="BK168" s="2"/>
+      <c r="BL168" s="2"/>
+      <c r="BM168" s="2"/>
+      <c r="BN168" s="2"/>
+      <c r="BO168" s="6"/>
+    </row>
+    <row r="169" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="6"/>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
+      <c r="AJ169" s="2"/>
+      <c r="AK169" s="2"/>
+      <c r="AL169" s="2"/>
+      <c r="AM169" s="2"/>
+      <c r="AN169" s="2"/>
+      <c r="AO169" s="2"/>
+      <c r="AP169" s="6"/>
+      <c r="AQ169" s="2"/>
+      <c r="AR169" s="2"/>
+      <c r="AS169" s="2"/>
+      <c r="AT169" s="2"/>
+      <c r="AU169" s="2"/>
+      <c r="AV169" s="2"/>
+      <c r="AW169" s="2"/>
+      <c r="AX169" s="2"/>
+      <c r="AY169" s="2"/>
+      <c r="AZ169" s="2"/>
+      <c r="BA169" s="2"/>
+      <c r="BB169" s="2"/>
+      <c r="BC169" s="2"/>
+      <c r="BD169" s="2"/>
+      <c r="BE169" s="2"/>
+      <c r="BF169" s="2"/>
+      <c r="BG169" s="2"/>
+      <c r="BH169" s="6"/>
+      <c r="BI169" s="2"/>
+      <c r="BJ169" s="2"/>
+      <c r="BK169" s="2"/>
+      <c r="BL169" s="2"/>
+      <c r="BM169" s="2"/>
+      <c r="BN169" s="2"/>
+      <c r="BO169" s="6"/>
+    </row>
+    <row r="170" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="6"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
+      <c r="AB170" s="2"/>
+      <c r="AC170" s="2"/>
+      <c r="AD170" s="2"/>
+      <c r="AE170" s="2"/>
+      <c r="AF170" s="6"/>
+      <c r="AG170" s="2"/>
+      <c r="AH170" s="2"/>
+      <c r="AI170" s="2"/>
+      <c r="AJ170" s="2"/>
+      <c r="AK170" s="2"/>
+      <c r="AL170" s="2"/>
+      <c r="AM170" s="2"/>
+      <c r="AN170" s="2"/>
+      <c r="AO170" s="2"/>
+      <c r="AP170" s="6"/>
+      <c r="AQ170" s="2"/>
+      <c r="AR170" s="2"/>
+      <c r="AS170" s="2"/>
+      <c r="AT170" s="2"/>
+      <c r="AU170" s="2"/>
+      <c r="AV170" s="2"/>
+      <c r="AW170" s="2"/>
+      <c r="AX170" s="2"/>
+      <c r="AY170" s="2"/>
+      <c r="AZ170" s="2"/>
+      <c r="BA170" s="2"/>
+      <c r="BB170" s="2"/>
+      <c r="BC170" s="2"/>
+      <c r="BD170" s="2"/>
+      <c r="BE170" s="2"/>
+      <c r="BF170" s="2"/>
+      <c r="BG170" s="2"/>
+      <c r="BH170" s="6"/>
+      <c r="BI170" s="2"/>
+      <c r="BJ170" s="2"/>
+      <c r="BK170" s="2"/>
+      <c r="BL170" s="2"/>
+      <c r="BM170" s="2"/>
+      <c r="BN170" s="2"/>
+      <c r="BO170" s="6"/>
+    </row>
+    <row r="171" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="8"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+      <c r="AF171" s="8"/>
+      <c r="AG171" s="3"/>
+      <c r="AH171" s="3"/>
+      <c r="AI171" s="3"/>
+      <c r="AJ171" s="3"/>
+      <c r="AK171" s="3"/>
+      <c r="AL171" s="3"/>
+      <c r="AM171" s="3"/>
+      <c r="AN171" s="3"/>
+      <c r="AO171" s="3"/>
+      <c r="AP171" s="8"/>
+      <c r="AQ171" s="3"/>
+      <c r="AR171" s="3"/>
+      <c r="AS171" s="3"/>
+      <c r="AT171" s="3"/>
+      <c r="AU171" s="3"/>
+      <c r="AV171" s="3"/>
+      <c r="AW171" s="3"/>
+      <c r="AX171" s="3"/>
+      <c r="AY171" s="3"/>
+      <c r="AZ171" s="3"/>
+      <c r="BA171" s="3"/>
+      <c r="BB171" s="3"/>
+      <c r="BC171" s="3"/>
+      <c r="BD171" s="3"/>
+      <c r="BE171" s="3"/>
+      <c r="BF171" s="3"/>
+      <c r="BG171" s="3"/>
+      <c r="BH171" s="8"/>
+      <c r="BI171" s="3"/>
+      <c r="BJ171" s="3"/>
+      <c r="BK171" s="3"/>
+      <c r="BL171" s="3"/>
+      <c r="BM171" s="3"/>
+      <c r="BN171" s="3"/>
+      <c r="BO171" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BI1:BO3"/>
-    <mergeCell ref="AQ1:BH3"/>
-    <mergeCell ref="AG1:AP3"/>
-    <mergeCell ref="W2:AF3"/>
-    <mergeCell ref="A42:B120"/>
-    <mergeCell ref="A121:B165"/>
-    <mergeCell ref="A4:B41"/>
+    <mergeCell ref="A127:B171"/>
+    <mergeCell ref="A4:B47"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="M3:V3"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C2:V2"/>
     <mergeCell ref="C1:AF1"/>
+    <mergeCell ref="BI1:BO3"/>
+    <mergeCell ref="AQ1:BH3"/>
+    <mergeCell ref="AG1:AP3"/>
+    <mergeCell ref="W2:AF3"/>
+    <mergeCell ref="A48:B126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="120" max="16383" man="1"/>
+    <brk id="126" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
